--- a/rules/start-end effect/rules_SE.xlsx
+++ b/rules/start-end effect/rules_SE.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="31">
   <si>
     <t>pID</t>
   </si>
@@ -39,10 +39,16 @@
     <t>第三阶段-位置</t>
   </si>
   <si>
+    <t>第四阶段-MMN</t>
+  </si>
+  <si>
     <t>apType</t>
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>passive</t>
   </si>
   <si>
     <t>protocol</t>
@@ -60,10 +66,13 @@
     <t>SE active3</t>
   </si>
   <si>
+    <t>SE passive1</t>
+  </si>
+  <si>
     <t>code</t>
   </si>
   <si>
-    <t>ISI</t>
+    <t>ITI</t>
   </si>
   <si>
     <t>nRepeat</t>
@@ -91,6 +100,12 @@
   </si>
   <si>
     <t>dur</t>
+  </si>
+  <si>
+    <t>nSTD</t>
+  </si>
+  <si>
+    <t>ISI</t>
   </si>
 </sst>
 </file>
@@ -136,16 +151,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O95"/>
+  <dimension ref="A1:Q111"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.15625" customWidth="true"/>
     <col min="2" max="2" width="16.48828125" customWidth="true"/>
     <col min="3" max="3" width="16.37890625" customWidth="true"/>
     <col min="4" max="4" width="7.046875" customWidth="true"/>
-    <col min="5" max="5" width="9.37890625" customWidth="true"/>
+    <col min="5" max="5" width="10.37890625" customWidth="true"/>
     <col min="6" max="6" width="5.15625" customWidth="true"/>
-    <col min="7" max="7" width="3.15625" customWidth="true"/>
+    <col min="7" max="7" width="3.26953125" customWidth="true"/>
     <col min="8" max="8" width="7.93359375" customWidth="true"/>
     <col min="9" max="9" width="6.82421875" customWidth="true"/>
     <col min="10" max="10" width="18.82421875" customWidth="true"/>
@@ -154,6 +169,8 @@
     <col min="13" max="13" width="13.37890625" customWidth="true"/>
     <col min="14" max="14" width="4.046875" customWidth="true"/>
     <col min="15" max="15" width="3.82421875" customWidth="true"/>
+    <col min="16" max="16" width="5.26953125" customWidth="true"/>
+    <col min="17" max="17" width="3.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -167,40 +184,46 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="P1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" s="0" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2">
@@ -214,10 +237,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="0">
         <v>4</v>
@@ -230,7 +253,7 @@
       </c>
       <c r="I2" s="0"/>
       <c r="J2" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K2" s="0">
         <v>1000</v>
@@ -241,6 +264,8 @@
       <c r="O2" s="0">
         <v>0.5</v>
       </c>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0">
@@ -253,10 +278,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="0">
         <v>5</v>
@@ -269,7 +294,7 @@
       </c>
       <c r="I3" s="0"/>
       <c r="J3" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K3" s="0">
         <v>1000</v>
@@ -286,6 +311,8 @@
       <c r="O3" s="0">
         <v>0.5</v>
       </c>
+      <c r="P3" s="0"/>
+      <c r="Q3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -298,10 +325,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" s="0">
         <v>6</v>
@@ -314,7 +341,7 @@
       </c>
       <c r="I4" s="0"/>
       <c r="J4" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K4" s="0">
         <v>1000</v>
@@ -331,6 +358,8 @@
       <c r="O4" s="0">
         <v>0.5</v>
       </c>
+      <c r="P4" s="0"/>
+      <c r="Q4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -343,10 +372,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="0">
         <v>7</v>
@@ -359,7 +388,7 @@
       </c>
       <c r="I5" s="0"/>
       <c r="J5" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K5" s="0">
         <v>1000</v>
@@ -376,6 +405,8 @@
       <c r="O5" s="0">
         <v>0.5</v>
       </c>
+      <c r="P5" s="0"/>
+      <c r="Q5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0">
@@ -388,10 +419,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="0">
         <v>8</v>
@@ -404,7 +435,7 @@
       </c>
       <c r="I6" s="0"/>
       <c r="J6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K6" s="0">
         <v>1000</v>
@@ -421,6 +452,8 @@
       <c r="O6" s="0">
         <v>0.5</v>
       </c>
+      <c r="P6" s="0"/>
+      <c r="Q6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -433,10 +466,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="0">
         <v>9</v>
@@ -449,7 +482,7 @@
       </c>
       <c r="I7" s="0"/>
       <c r="J7" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0">
         <v>1000</v>
@@ -466,6 +499,8 @@
       <c r="O7" s="0">
         <v>0.5</v>
       </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -478,10 +513,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F8" s="0">
         <v>10</v>
@@ -494,7 +529,7 @@
       </c>
       <c r="I8" s="0"/>
       <c r="J8" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K8" s="0">
         <v>1000</v>
@@ -511,6 +546,8 @@
       <c r="O8" s="0">
         <v>0.5</v>
       </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -523,10 +560,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="0">
         <v>11</v>
@@ -539,7 +576,7 @@
       </c>
       <c r="I9" s="0"/>
       <c r="J9" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K9" s="0">
         <v>1000</v>
@@ -556,6 +593,8 @@
       <c r="O9" s="0">
         <v>0.5</v>
       </c>
+      <c r="P9" s="0"/>
+      <c r="Q9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -568,10 +607,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="0">
         <v>12</v>
@@ -584,7 +623,7 @@
       </c>
       <c r="I10" s="0"/>
       <c r="J10" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K10" s="0">
         <v>1000</v>
@@ -601,6 +640,8 @@
       <c r="O10" s="0">
         <v>0.5</v>
       </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0">
@@ -613,10 +654,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="0">
         <v>13</v>
@@ -629,7 +670,7 @@
       </c>
       <c r="I11" s="0"/>
       <c r="J11" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K11" s="0">
         <v>1000</v>
@@ -646,6 +687,8 @@
       <c r="O11" s="0">
         <v>0.5</v>
       </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -658,10 +701,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" s="0">
         <v>14</v>
@@ -674,7 +717,7 @@
       </c>
       <c r="I12" s="0"/>
       <c r="J12" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K12" s="0">
         <v>1000</v>
@@ -691,6 +734,8 @@
       <c r="O12" s="0">
         <v>0.5</v>
       </c>
+      <c r="P12" s="0"/>
+      <c r="Q12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0">
@@ -703,10 +748,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F13" s="0">
         <v>15</v>
@@ -719,7 +764,7 @@
       </c>
       <c r="I13" s="0"/>
       <c r="J13" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K13" s="0">
         <v>1000</v>
@@ -736,6 +781,8 @@
       <c r="O13" s="0">
         <v>0.5</v>
       </c>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0">
@@ -748,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F14" s="0">
         <v>16</v>
@@ -764,7 +811,7 @@
       </c>
       <c r="I14" s="0"/>
       <c r="J14" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K14" s="0">
         <v>1000</v>
@@ -781,6 +828,8 @@
       <c r="O14" s="0">
         <v>0.5</v>
       </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0">
@@ -793,10 +842,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F15" s="0">
         <v>17</v>
@@ -809,7 +858,7 @@
       </c>
       <c r="I15" s="0"/>
       <c r="J15" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K15" s="0">
         <v>1000</v>
@@ -826,6 +875,8 @@
       <c r="O15" s="0">
         <v>0.5</v>
       </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0">
@@ -838,10 +889,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F16" s="0">
         <v>18</v>
@@ -854,7 +905,7 @@
       </c>
       <c r="I16" s="0"/>
       <c r="J16" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K16" s="0">
         <v>1000</v>
@@ -871,6 +922,8 @@
       <c r="O16" s="0">
         <v>0.5</v>
       </c>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0">
@@ -883,10 +936,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F17" s="0">
         <v>19</v>
@@ -899,7 +952,7 @@
       </c>
       <c r="I17" s="0"/>
       <c r="J17" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K17" s="0">
         <v>1000</v>
@@ -916,6 +969,8 @@
       <c r="O17" s="0">
         <v>0.5</v>
       </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0">
@@ -928,10 +983,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="0">
         <v>20</v>
@@ -944,7 +999,7 @@
       </c>
       <c r="I18" s="0"/>
       <c r="J18" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K18" s="0">
         <v>1000</v>
@@ -961,6 +1016,8 @@
       <c r="O18" s="0">
         <v>0.5</v>
       </c>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0">
@@ -973,10 +1030,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F19" s="0">
         <v>21</v>
@@ -989,7 +1046,7 @@
       </c>
       <c r="I19" s="0"/>
       <c r="J19" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K19" s="0">
         <v>1000</v>
@@ -1006,6 +1063,8 @@
       <c r="O19" s="0">
         <v>0.5</v>
       </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0">
@@ -1018,10 +1077,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F20" s="0">
         <v>22</v>
@@ -1034,7 +1093,7 @@
       </c>
       <c r="I20" s="0"/>
       <c r="J20" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K20" s="0">
         <v>1000</v>
@@ -1051,6 +1110,8 @@
       <c r="O20" s="0">
         <v>0.5</v>
       </c>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0">
@@ -1063,10 +1124,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F21" s="0">
         <v>23</v>
@@ -1079,7 +1140,7 @@
       </c>
       <c r="I21" s="0"/>
       <c r="J21" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K21" s="0">
         <v>1000</v>
@@ -1096,6 +1157,8 @@
       <c r="O21" s="0">
         <v>0.5</v>
       </c>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0">
@@ -1108,10 +1171,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F22" s="0">
         <v>24</v>
@@ -1124,7 +1187,7 @@
       </c>
       <c r="I22" s="0"/>
       <c r="J22" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K22" s="0">
         <v>1000</v>
@@ -1141,6 +1204,8 @@
       <c r="O22" s="0">
         <v>0.5</v>
       </c>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0">
@@ -1153,10 +1218,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F23" s="0">
         <v>25</v>
@@ -1169,7 +1234,7 @@
       </c>
       <c r="I23" s="0"/>
       <c r="J23" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K23" s="0">
         <v>1000</v>
@@ -1186,6 +1251,8 @@
       <c r="O23" s="0">
         <v>0.5</v>
       </c>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0">
@@ -1198,10 +1265,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F24" s="0">
         <v>26</v>
@@ -1214,7 +1281,7 @@
       </c>
       <c r="I24" s="0"/>
       <c r="J24" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K24" s="0">
         <v>1000</v>
@@ -1231,6 +1298,8 @@
       <c r="O24" s="0">
         <v>0.5</v>
       </c>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0">
@@ -1243,10 +1312,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F25" s="0">
         <v>27</v>
@@ -1259,7 +1328,7 @@
       </c>
       <c r="I25" s="0"/>
       <c r="J25" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K25" s="0">
         <v>1000</v>
@@ -1276,6 +1345,8 @@
       <c r="O25" s="0">
         <v>0.5</v>
       </c>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0">
@@ -1288,10 +1359,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F26" s="0">
         <v>28</v>
@@ -1304,7 +1375,7 @@
       </c>
       <c r="I26" s="0"/>
       <c r="J26" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K26" s="0">
         <v>1000</v>
@@ -1321,6 +1392,8 @@
       <c r="O26" s="0">
         <v>0.5</v>
       </c>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0">
@@ -1333,10 +1406,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F27" s="0">
         <v>29</v>
@@ -1349,7 +1422,7 @@
       </c>
       <c r="I27" s="0"/>
       <c r="J27" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K27" s="0">
         <v>2000</v>
@@ -1360,6 +1433,8 @@
       <c r="O27" s="0">
         <v>0.5</v>
       </c>
+      <c r="P27" s="0"/>
+      <c r="Q27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0">
@@ -1372,10 +1447,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F28" s="0">
         <v>30</v>
@@ -1388,7 +1463,7 @@
       </c>
       <c r="I28" s="0"/>
       <c r="J28" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K28" s="0">
         <v>2000</v>
@@ -1405,6 +1480,8 @@
       <c r="O28" s="0">
         <v>0.5</v>
       </c>
+      <c r="P28" s="0"/>
+      <c r="Q28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0">
@@ -1417,10 +1494,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F29" s="0">
         <v>31</v>
@@ -1433,7 +1510,7 @@
       </c>
       <c r="I29" s="0"/>
       <c r="J29" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K29" s="0">
         <v>2000</v>
@@ -1450,6 +1527,8 @@
       <c r="O29" s="0">
         <v>0.5</v>
       </c>
+      <c r="P29" s="0"/>
+      <c r="Q29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0">
@@ -1462,10 +1541,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F30" s="0">
         <v>32</v>
@@ -1478,7 +1557,7 @@
       </c>
       <c r="I30" s="0"/>
       <c r="J30" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K30" s="0">
         <v>2000</v>
@@ -1495,6 +1574,8 @@
       <c r="O30" s="0">
         <v>0.5</v>
       </c>
+      <c r="P30" s="0"/>
+      <c r="Q30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0">
@@ -1507,10 +1588,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F31" s="0">
         <v>33</v>
@@ -1523,7 +1604,7 @@
       </c>
       <c r="I31" s="0"/>
       <c r="J31" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K31" s="0">
         <v>2000</v>
@@ -1540,6 +1621,8 @@
       <c r="O31" s="0">
         <v>0.5</v>
       </c>
+      <c r="P31" s="0"/>
+      <c r="Q31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0">
@@ -1552,10 +1635,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F32" s="0">
         <v>34</v>
@@ -1568,7 +1651,7 @@
       </c>
       <c r="I32" s="0"/>
       <c r="J32" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K32" s="0">
         <v>2000</v>
@@ -1585,6 +1668,8 @@
       <c r="O32" s="0">
         <v>0.5</v>
       </c>
+      <c r="P32" s="0"/>
+      <c r="Q32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0">
@@ -1597,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F33" s="0">
         <v>35</v>
@@ -1613,7 +1698,7 @@
       </c>
       <c r="I33" s="0"/>
       <c r="J33" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K33" s="0">
         <v>2000</v>
@@ -1630,6 +1715,8 @@
       <c r="O33" s="0">
         <v>0.5</v>
       </c>
+      <c r="P33" s="0"/>
+      <c r="Q33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0">
@@ -1642,10 +1729,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F34" s="0">
         <v>36</v>
@@ -1658,7 +1745,7 @@
       </c>
       <c r="I34" s="0"/>
       <c r="J34" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K34" s="0">
         <v>2000</v>
@@ -1675,6 +1762,8 @@
       <c r="O34" s="0">
         <v>0.5</v>
       </c>
+      <c r="P34" s="0"/>
+      <c r="Q34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0">
@@ -1687,10 +1776,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F35" s="0">
         <v>37</v>
@@ -1703,7 +1792,7 @@
       </c>
       <c r="I35" s="0"/>
       <c r="J35" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K35" s="0">
         <v>2000</v>
@@ -1720,6 +1809,8 @@
       <c r="O35" s="0">
         <v>0.5</v>
       </c>
+      <c r="P35" s="0"/>
+      <c r="Q35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0">
@@ -1732,10 +1823,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F36" s="0">
         <v>38</v>
@@ -1748,7 +1839,7 @@
       </c>
       <c r="I36" s="0"/>
       <c r="J36" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K36" s="0">
         <v>2000</v>
@@ -1765,6 +1856,8 @@
       <c r="O36" s="0">
         <v>0.5</v>
       </c>
+      <c r="P36" s="0"/>
+      <c r="Q36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0">
@@ -1777,10 +1870,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F37" s="0">
         <v>39</v>
@@ -1793,7 +1886,7 @@
       </c>
       <c r="I37" s="0"/>
       <c r="J37" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K37" s="0">
         <v>2000</v>
@@ -1810,6 +1903,8 @@
       <c r="O37" s="0">
         <v>0.5</v>
       </c>
+      <c r="P37" s="0"/>
+      <c r="Q37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0">
@@ -1822,10 +1917,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F38" s="0">
         <v>40</v>
@@ -1838,7 +1933,7 @@
       </c>
       <c r="I38" s="0"/>
       <c r="J38" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K38" s="0">
         <v>2000</v>
@@ -1855,6 +1950,8 @@
       <c r="O38" s="0">
         <v>0.5</v>
       </c>
+      <c r="P38" s="0"/>
+      <c r="Q38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0">
@@ -1867,10 +1964,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F39" s="0">
         <v>41</v>
@@ -1883,7 +1980,7 @@
       </c>
       <c r="I39" s="0"/>
       <c r="J39" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K39" s="0">
         <v>2000</v>
@@ -1900,6 +1997,8 @@
       <c r="O39" s="0">
         <v>0.5</v>
       </c>
+      <c r="P39" s="0"/>
+      <c r="Q39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0">
@@ -1912,10 +2011,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F40" s="0">
         <v>42</v>
@@ -1928,7 +2027,7 @@
       </c>
       <c r="I40" s="0"/>
       <c r="J40" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K40" s="0">
         <v>2000</v>
@@ -1945,6 +2044,8 @@
       <c r="O40" s="0">
         <v>0.5</v>
       </c>
+      <c r="P40" s="0"/>
+      <c r="Q40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0">
@@ -1957,10 +2058,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F41" s="0">
         <v>43</v>
@@ -1973,7 +2074,7 @@
       </c>
       <c r="I41" s="0"/>
       <c r="J41" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K41" s="0">
         <v>2000</v>
@@ -1990,6 +2091,8 @@
       <c r="O41" s="0">
         <v>0.5</v>
       </c>
+      <c r="P41" s="0"/>
+      <c r="Q41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0">
@@ -2002,10 +2105,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F42" s="0">
         <v>44</v>
@@ -2018,7 +2121,7 @@
       </c>
       <c r="I42" s="0"/>
       <c r="J42" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K42" s="0">
         <v>2000</v>
@@ -2035,6 +2138,8 @@
       <c r="O42" s="0">
         <v>0.5</v>
       </c>
+      <c r="P42" s="0"/>
+      <c r="Q42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0">
@@ -2047,10 +2152,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F43" s="0">
         <v>45</v>
@@ -2063,7 +2168,7 @@
       </c>
       <c r="I43" s="0"/>
       <c r="J43" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K43" s="0">
         <v>2000</v>
@@ -2080,6 +2185,8 @@
       <c r="O43" s="0">
         <v>0.5</v>
       </c>
+      <c r="P43" s="0"/>
+      <c r="Q43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0">
@@ -2092,10 +2199,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F44" s="0">
         <v>46</v>
@@ -2108,7 +2215,7 @@
       </c>
       <c r="I44" s="0"/>
       <c r="J44" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K44" s="0">
         <v>2000</v>
@@ -2125,6 +2232,8 @@
       <c r="O44" s="0">
         <v>0.5</v>
       </c>
+      <c r="P44" s="0"/>
+      <c r="Q44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0">
@@ -2137,10 +2246,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F45" s="0">
         <v>47</v>
@@ -2153,7 +2262,7 @@
       </c>
       <c r="I45" s="0"/>
       <c r="J45" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K45" s="0">
         <v>2000</v>
@@ -2170,6 +2279,8 @@
       <c r="O45" s="0">
         <v>0.5</v>
       </c>
+      <c r="P45" s="0"/>
+      <c r="Q45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0">
@@ -2182,10 +2293,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F46" s="0">
         <v>48</v>
@@ -2198,7 +2309,7 @@
       </c>
       <c r="I46" s="0"/>
       <c r="J46" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K46" s="0">
         <v>2000</v>
@@ -2215,6 +2326,8 @@
       <c r="O46" s="0">
         <v>0.5</v>
       </c>
+      <c r="P46" s="0"/>
+      <c r="Q46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0">
@@ -2227,10 +2340,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F47" s="0">
         <v>49</v>
@@ -2243,7 +2356,7 @@
       </c>
       <c r="I47" s="0"/>
       <c r="J47" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K47" s="0">
         <v>2000</v>
@@ -2260,6 +2373,8 @@
       <c r="O47" s="0">
         <v>0.5</v>
       </c>
+      <c r="P47" s="0"/>
+      <c r="Q47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0">
@@ -2272,10 +2387,10 @@
         <v>4</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F48" s="0">
         <v>50</v>
@@ -2288,7 +2403,7 @@
       </c>
       <c r="I48" s="0"/>
       <c r="J48" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K48" s="0">
         <v>2000</v>
@@ -2305,6 +2420,8 @@
       <c r="O48" s="0">
         <v>0.5</v>
       </c>
+      <c r="P48" s="0"/>
+      <c r="Q48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" s="0">
@@ -2317,10 +2434,10 @@
         <v>4</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F49" s="0">
         <v>51</v>
@@ -2333,7 +2450,7 @@
       </c>
       <c r="I49" s="0"/>
       <c r="J49" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K49" s="0">
         <v>2000</v>
@@ -2350,6 +2467,8 @@
       <c r="O49" s="0">
         <v>0.5</v>
       </c>
+      <c r="P49" s="0"/>
+      <c r="Q49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0">
@@ -2362,10 +2481,10 @@
         <v>4</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F50" s="0">
         <v>52</v>
@@ -2378,7 +2497,7 @@
       </c>
       <c r="I50" s="0"/>
       <c r="J50" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K50" s="0">
         <v>2000</v>
@@ -2395,6 +2514,8 @@
       <c r="O50" s="0">
         <v>0.5</v>
       </c>
+      <c r="P50" s="0"/>
+      <c r="Q50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" s="0">
@@ -2407,10 +2528,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F51" s="0">
         <v>53</v>
@@ -2423,7 +2544,7 @@
       </c>
       <c r="I51" s="0"/>
       <c r="J51" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K51" s="0">
         <v>2000</v>
@@ -2440,6 +2561,8 @@
       <c r="O51" s="0">
         <v>0.5</v>
       </c>
+      <c r="P51" s="0"/>
+      <c r="Q51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0">
@@ -2452,10 +2575,10 @@
         <v>5</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F52" s="0">
         <v>4</v>
@@ -2468,7 +2591,7 @@
       </c>
       <c r="I52" s="0"/>
       <c r="J52" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K52" s="0">
         <v>1000</v>
@@ -2479,6 +2602,8 @@
       <c r="O52" s="0">
         <v>0.5</v>
       </c>
+      <c r="P52" s="0"/>
+      <c r="Q52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0">
@@ -2491,10 +2616,10 @@
         <v>5</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F53" s="0">
         <v>5</v>
@@ -2507,7 +2632,7 @@
       </c>
       <c r="I53" s="0"/>
       <c r="J53" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K53" s="0">
         <v>1000</v>
@@ -2524,6 +2649,8 @@
       <c r="O53" s="0">
         <v>0.5</v>
       </c>
+      <c r="P53" s="0"/>
+      <c r="Q53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0">
@@ -2536,10 +2663,10 @@
         <v>5</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F54" s="0">
         <v>6</v>
@@ -2552,7 +2679,7 @@
       </c>
       <c r="I54" s="0"/>
       <c r="J54" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K54" s="0">
         <v>1000</v>
@@ -2569,6 +2696,8 @@
       <c r="O54" s="0">
         <v>0.5</v>
       </c>
+      <c r="P54" s="0"/>
+      <c r="Q54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0">
@@ -2581,10 +2710,10 @@
         <v>5</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F55" s="0">
         <v>7</v>
@@ -2597,7 +2726,7 @@
       </c>
       <c r="I55" s="0"/>
       <c r="J55" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K55" s="0">
         <v>1000</v>
@@ -2614,6 +2743,8 @@
       <c r="O55" s="0">
         <v>0.5</v>
       </c>
+      <c r="P55" s="0"/>
+      <c r="Q55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0">
@@ -2626,10 +2757,10 @@
         <v>5</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F56" s="0">
         <v>8</v>
@@ -2642,7 +2773,7 @@
       </c>
       <c r="I56" s="0"/>
       <c r="J56" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K56" s="0">
         <v>1000</v>
@@ -2659,6 +2790,8 @@
       <c r="O56" s="0">
         <v>0.5</v>
       </c>
+      <c r="P56" s="0"/>
+      <c r="Q56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0">
@@ -2671,10 +2804,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F57" s="0">
         <v>9</v>
@@ -2687,7 +2820,7 @@
       </c>
       <c r="I57" s="0"/>
       <c r="J57" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K57" s="0">
         <v>1000</v>
@@ -2704,6 +2837,8 @@
       <c r="O57" s="0">
         <v>0.5</v>
       </c>
+      <c r="P57" s="0"/>
+      <c r="Q57" s="0"/>
     </row>
     <row r="58">
       <c r="A58" s="0">
@@ -2716,10 +2851,10 @@
         <v>5</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F58" s="0">
         <v>10</v>
@@ -2732,7 +2867,7 @@
       </c>
       <c r="I58" s="0"/>
       <c r="J58" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K58" s="0">
         <v>1000</v>
@@ -2749,6 +2884,8 @@
       <c r="O58" s="0">
         <v>0.5</v>
       </c>
+      <c r="P58" s="0"/>
+      <c r="Q58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0">
@@ -2761,10 +2898,10 @@
         <v>5</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F59" s="0">
         <v>11</v>
@@ -2777,7 +2914,7 @@
       </c>
       <c r="I59" s="0"/>
       <c r="J59" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K59" s="0">
         <v>1000</v>
@@ -2794,6 +2931,8 @@
       <c r="O59" s="0">
         <v>0.5</v>
       </c>
+      <c r="P59" s="0"/>
+      <c r="Q59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" s="0">
@@ -2806,10 +2945,10 @@
         <v>5</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" s="0">
         <v>12</v>
@@ -2822,7 +2961,7 @@
       </c>
       <c r="I60" s="0"/>
       <c r="J60" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K60" s="0">
         <v>1000</v>
@@ -2839,6 +2978,8 @@
       <c r="O60" s="0">
         <v>0.5</v>
       </c>
+      <c r="P60" s="0"/>
+      <c r="Q60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0">
@@ -2851,10 +2992,10 @@
         <v>5</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F61" s="0">
         <v>13</v>
@@ -2867,7 +3008,7 @@
       </c>
       <c r="I61" s="0"/>
       <c r="J61" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K61" s="0">
         <v>1000</v>
@@ -2884,6 +3025,8 @@
       <c r="O61" s="0">
         <v>0.5</v>
       </c>
+      <c r="P61" s="0"/>
+      <c r="Q61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0">
@@ -2896,10 +3039,10 @@
         <v>5</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F62" s="0">
         <v>14</v>
@@ -2912,7 +3055,7 @@
       </c>
       <c r="I62" s="0"/>
       <c r="J62" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K62" s="0">
         <v>1000</v>
@@ -2929,6 +3072,8 @@
       <c r="O62" s="0">
         <v>0.5</v>
       </c>
+      <c r="P62" s="0"/>
+      <c r="Q62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" s="0">
@@ -2941,10 +3086,10 @@
         <v>5</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F63" s="0">
         <v>15</v>
@@ -2957,7 +3102,7 @@
       </c>
       <c r="I63" s="0"/>
       <c r="J63" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K63" s="0">
         <v>1000</v>
@@ -2974,6 +3119,8 @@
       <c r="O63" s="0">
         <v>0.5</v>
       </c>
+      <c r="P63" s="0"/>
+      <c r="Q63" s="0"/>
     </row>
     <row r="64">
       <c r="A64" s="0">
@@ -2986,10 +3133,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F64" s="0">
         <v>16</v>
@@ -3002,7 +3149,7 @@
       </c>
       <c r="I64" s="0"/>
       <c r="J64" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K64" s="0">
         <v>1000</v>
@@ -3019,6 +3166,8 @@
       <c r="O64" s="0">
         <v>0.5</v>
       </c>
+      <c r="P64" s="0"/>
+      <c r="Q64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" s="0">
@@ -3031,10 +3180,10 @@
         <v>5</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F65" s="0">
         <v>17</v>
@@ -3047,7 +3196,7 @@
       </c>
       <c r="I65" s="0"/>
       <c r="J65" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K65" s="0">
         <v>1000</v>
@@ -3064,6 +3213,8 @@
       <c r="O65" s="0">
         <v>0.5</v>
       </c>
+      <c r="P65" s="0"/>
+      <c r="Q65" s="0"/>
     </row>
     <row r="66">
       <c r="A66" s="0">
@@ -3076,10 +3227,10 @@
         <v>5</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F66" s="0">
         <v>18</v>
@@ -3092,7 +3243,7 @@
       </c>
       <c r="I66" s="0"/>
       <c r="J66" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K66" s="0">
         <v>1000</v>
@@ -3109,6 +3260,8 @@
       <c r="O66" s="0">
         <v>0.5</v>
       </c>
+      <c r="P66" s="0"/>
+      <c r="Q66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0">
@@ -3121,10 +3274,10 @@
         <v>5</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F67" s="0">
         <v>19</v>
@@ -3137,7 +3290,7 @@
       </c>
       <c r="I67" s="0"/>
       <c r="J67" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K67" s="0">
         <v>1000</v>
@@ -3154,6 +3307,8 @@
       <c r="O67" s="0">
         <v>0.5</v>
       </c>
+      <c r="P67" s="0"/>
+      <c r="Q67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0">
@@ -3166,10 +3321,10 @@
         <v>6</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F68" s="0">
         <v>4</v>
@@ -3182,7 +3337,7 @@
       </c>
       <c r="I68" s="0"/>
       <c r="J68" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K68" s="0">
         <v>2000</v>
@@ -3193,6 +3348,8 @@
       <c r="O68" s="0">
         <v>0.5</v>
       </c>
+      <c r="P68" s="0"/>
+      <c r="Q68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" s="0">
@@ -3205,10 +3362,10 @@
         <v>6</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F69" s="0">
         <v>5</v>
@@ -3221,7 +3378,7 @@
       </c>
       <c r="I69" s="0"/>
       <c r="J69" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K69" s="0">
         <v>2000</v>
@@ -3238,6 +3395,8 @@
       <c r="O69" s="0">
         <v>0.5</v>
       </c>
+      <c r="P69" s="0"/>
+      <c r="Q69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0">
@@ -3250,10 +3409,10 @@
         <v>6</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F70" s="0">
         <v>6</v>
@@ -3266,7 +3425,7 @@
       </c>
       <c r="I70" s="0"/>
       <c r="J70" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K70" s="0">
         <v>2000</v>
@@ -3283,6 +3442,8 @@
       <c r="O70" s="0">
         <v>0.5</v>
       </c>
+      <c r="P70" s="0"/>
+      <c r="Q70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0">
@@ -3295,10 +3456,10 @@
         <v>6</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F71" s="0">
         <v>7</v>
@@ -3311,7 +3472,7 @@
       </c>
       <c r="I71" s="0"/>
       <c r="J71" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K71" s="0">
         <v>2000</v>
@@ -3328,6 +3489,8 @@
       <c r="O71" s="0">
         <v>0.5</v>
       </c>
+      <c r="P71" s="0"/>
+      <c r="Q71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" s="0">
@@ -3340,10 +3503,10 @@
         <v>6</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F72" s="0">
         <v>8</v>
@@ -3356,7 +3519,7 @@
       </c>
       <c r="I72" s="0"/>
       <c r="J72" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K72" s="0">
         <v>2000</v>
@@ -3373,6 +3536,8 @@
       <c r="O72" s="0">
         <v>0.5</v>
       </c>
+      <c r="P72" s="0"/>
+      <c r="Q72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0">
@@ -3385,10 +3550,10 @@
         <v>6</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F73" s="0">
         <v>9</v>
@@ -3401,7 +3566,7 @@
       </c>
       <c r="I73" s="0"/>
       <c r="J73" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K73" s="0">
         <v>2000</v>
@@ -3418,6 +3583,8 @@
       <c r="O73" s="0">
         <v>0.5</v>
       </c>
+      <c r="P73" s="0"/>
+      <c r="Q73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0">
@@ -3430,10 +3597,10 @@
         <v>6</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F74" s="0">
         <v>10</v>
@@ -3446,7 +3613,7 @@
       </c>
       <c r="I74" s="0"/>
       <c r="J74" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K74" s="0">
         <v>2000</v>
@@ -3463,6 +3630,8 @@
       <c r="O74" s="0">
         <v>0.5</v>
       </c>
+      <c r="P74" s="0"/>
+      <c r="Q74" s="0"/>
     </row>
     <row r="75">
       <c r="A75" s="0">
@@ -3475,10 +3644,10 @@
         <v>6</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F75" s="0">
         <v>11</v>
@@ -3491,7 +3660,7 @@
       </c>
       <c r="I75" s="0"/>
       <c r="J75" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K75" s="0">
         <v>2000</v>
@@ -3508,6 +3677,8 @@
       <c r="O75" s="0">
         <v>0.5</v>
       </c>
+      <c r="P75" s="0"/>
+      <c r="Q75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" s="0">
@@ -3520,10 +3691,10 @@
         <v>6</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F76" s="0">
         <v>12</v>
@@ -3536,7 +3707,7 @@
       </c>
       <c r="I76" s="0"/>
       <c r="J76" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K76" s="0">
         <v>2000</v>
@@ -3553,6 +3724,8 @@
       <c r="O76" s="0">
         <v>0.5</v>
       </c>
+      <c r="P76" s="0"/>
+      <c r="Q76" s="0"/>
     </row>
     <row r="77">
       <c r="A77" s="0">
@@ -3565,10 +3738,10 @@
         <v>6</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F77" s="0">
         <v>13</v>
@@ -3581,7 +3754,7 @@
       </c>
       <c r="I77" s="0"/>
       <c r="J77" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K77" s="0">
         <v>2000</v>
@@ -3598,6 +3771,8 @@
       <c r="O77" s="0">
         <v>0.5</v>
       </c>
+      <c r="P77" s="0"/>
+      <c r="Q77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" s="0">
@@ -3610,10 +3785,10 @@
         <v>6</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F78" s="0">
         <v>14</v>
@@ -3626,7 +3801,7 @@
       </c>
       <c r="I78" s="0"/>
       <c r="J78" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K78" s="0">
         <v>2000</v>
@@ -3643,6 +3818,8 @@
       <c r="O78" s="0">
         <v>0.5</v>
       </c>
+      <c r="P78" s="0"/>
+      <c r="Q78" s="0"/>
     </row>
     <row r="79">
       <c r="A79" s="0">
@@ -3655,10 +3832,10 @@
         <v>6</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F79" s="0">
         <v>15</v>
@@ -3671,7 +3848,7 @@
       </c>
       <c r="I79" s="0"/>
       <c r="J79" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K79" s="0">
         <v>2000</v>
@@ -3688,6 +3865,8 @@
       <c r="O79" s="0">
         <v>0.5</v>
       </c>
+      <c r="P79" s="0"/>
+      <c r="Q79" s="0"/>
     </row>
     <row r="80">
       <c r="A80" s="0">
@@ -3700,10 +3879,10 @@
         <v>6</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F80" s="0">
         <v>16</v>
@@ -3716,7 +3895,7 @@
       </c>
       <c r="I80" s="0"/>
       <c r="J80" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K80" s="0">
         <v>2000</v>
@@ -3733,6 +3912,8 @@
       <c r="O80" s="0">
         <v>0.5</v>
       </c>
+      <c r="P80" s="0"/>
+      <c r="Q80" s="0"/>
     </row>
     <row r="81">
       <c r="A81" s="0">
@@ -3745,10 +3926,10 @@
         <v>6</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F81" s="0">
         <v>17</v>
@@ -3761,7 +3942,7 @@
       </c>
       <c r="I81" s="0"/>
       <c r="J81" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K81" s="0">
         <v>2000</v>
@@ -3778,6 +3959,8 @@
       <c r="O81" s="0">
         <v>0.5</v>
       </c>
+      <c r="P81" s="0"/>
+      <c r="Q81" s="0"/>
     </row>
     <row r="82">
       <c r="A82" s="0">
@@ -3790,10 +3973,10 @@
         <v>6</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F82" s="0">
         <v>18</v>
@@ -3806,7 +3989,7 @@
       </c>
       <c r="I82" s="0"/>
       <c r="J82" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K82" s="0">
         <v>2000</v>
@@ -3823,6 +4006,8 @@
       <c r="O82" s="0">
         <v>0.5</v>
       </c>
+      <c r="P82" s="0"/>
+      <c r="Q82" s="0"/>
     </row>
     <row r="83">
       <c r="A83" s="0">
@@ -3835,10 +4020,10 @@
         <v>6</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F83" s="0">
         <v>19</v>
@@ -3851,7 +4036,7 @@
       </c>
       <c r="I83" s="0"/>
       <c r="J83" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K83" s="0">
         <v>2000</v>
@@ -3868,6 +4053,8 @@
       <c r="O83" s="0">
         <v>0.5</v>
       </c>
+      <c r="P83" s="0"/>
+      <c r="Q83" s="0"/>
     </row>
     <row r="84">
       <c r="A84" s="0">
@@ -3880,10 +4067,10 @@
         <v>7</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F84" s="0">
         <v>4</v>
@@ -3905,6 +4092,8 @@
       <c r="O84" s="0">
         <v>0.5</v>
       </c>
+      <c r="P84" s="0"/>
+      <c r="Q84" s="0"/>
     </row>
     <row r="85">
       <c r="A85" s="0">
@@ -3917,10 +4106,10 @@
         <v>7</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F85" s="0">
         <v>5</v>
@@ -3948,6 +4137,8 @@
       <c r="O85" s="0">
         <v>0.5</v>
       </c>
+      <c r="P85" s="0"/>
+      <c r="Q85" s="0"/>
     </row>
     <row r="86">
       <c r="A86" s="0">
@@ -3960,10 +4151,10 @@
         <v>7</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F86" s="0">
         <v>6</v>
@@ -3991,6 +4182,8 @@
       <c r="O86" s="0">
         <v>0.5</v>
       </c>
+      <c r="P86" s="0"/>
+      <c r="Q86" s="0"/>
     </row>
     <row r="87">
       <c r="A87" s="0">
@@ -4003,10 +4196,10 @@
         <v>7</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F87" s="0">
         <v>7</v>
@@ -4034,6 +4227,8 @@
       <c r="O87" s="0">
         <v>0.5</v>
       </c>
+      <c r="P87" s="0"/>
+      <c r="Q87" s="0"/>
     </row>
     <row r="88">
       <c r="A88" s="0">
@@ -4046,10 +4241,10 @@
         <v>7</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F88" s="0">
         <v>8</v>
@@ -4077,6 +4272,8 @@
       <c r="O88" s="0">
         <v>0.5</v>
       </c>
+      <c r="P88" s="0"/>
+      <c r="Q88" s="0"/>
     </row>
     <row r="89">
       <c r="A89" s="0">
@@ -4089,10 +4286,10 @@
         <v>7</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F89" s="0">
         <v>9</v>
@@ -4120,6 +4317,8 @@
       <c r="O89" s="0">
         <v>0.5</v>
       </c>
+      <c r="P89" s="0"/>
+      <c r="Q89" s="0"/>
     </row>
     <row r="90">
       <c r="A90" s="0">
@@ -4132,10 +4331,10 @@
         <v>7</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F90" s="0">
         <v>10</v>
@@ -4163,6 +4362,8 @@
       <c r="O90" s="0">
         <v>0.5</v>
       </c>
+      <c r="P90" s="0"/>
+      <c r="Q90" s="0"/>
     </row>
     <row r="91">
       <c r="A91" s="0">
@@ -4175,10 +4376,10 @@
         <v>7</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F91" s="0">
         <v>11</v>
@@ -4206,6 +4407,8 @@
       <c r="O91" s="0">
         <v>0.5</v>
       </c>
+      <c r="P91" s="0"/>
+      <c r="Q91" s="0"/>
     </row>
     <row r="92">
       <c r="A92" s="0">
@@ -4218,10 +4421,10 @@
         <v>7</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F92" s="0">
         <v>12</v>
@@ -4249,6 +4452,8 @@
       <c r="O92" s="0">
         <v>0.5</v>
       </c>
+      <c r="P92" s="0"/>
+      <c r="Q92" s="0"/>
     </row>
     <row r="93">
       <c r="A93" s="0">
@@ -4261,10 +4466,10 @@
         <v>7</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F93" s="0">
         <v>13</v>
@@ -4292,6 +4497,8 @@
       <c r="O93" s="0">
         <v>0.5</v>
       </c>
+      <c r="P93" s="0"/>
+      <c r="Q93" s="0"/>
     </row>
     <row r="94">
       <c r="A94" s="0">
@@ -4304,10 +4511,10 @@
         <v>7</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F94" s="0">
         <v>14</v>
@@ -4335,6 +4542,8 @@
       <c r="O94" s="0">
         <v>0.5</v>
       </c>
+      <c r="P94" s="0"/>
+      <c r="Q94" s="0"/>
     </row>
     <row r="95">
       <c r="A95" s="0">
@@ -4347,10 +4556,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F95" s="0">
         <v>15</v>
@@ -4378,6 +4587,786 @@
       <c r="O95" s="0">
         <v>0.5</v>
       </c>
+      <c r="P95" s="0"/>
+      <c r="Q95" s="0"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="0">
+        <v>105</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F96" s="0">
+        <v>4</v>
+      </c>
+      <c r="G96" s="0">
+        <v>10</v>
+      </c>
+      <c r="H96" s="0">
+        <v>40</v>
+      </c>
+      <c r="I96" s="0"/>
+      <c r="J96" s="0"/>
+      <c r="K96" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L96" s="0"/>
+      <c r="M96" s="0"/>
+      <c r="N96" s="0"/>
+      <c r="O96" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P96" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q96" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="0">
+        <v>105</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F97" s="0">
+        <v>5</v>
+      </c>
+      <c r="G97" s="0">
+        <v>10</v>
+      </c>
+      <c r="H97" s="0">
+        <v>40</v>
+      </c>
+      <c r="I97" s="0"/>
+      <c r="J97" s="0"/>
+      <c r="K97" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L97" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="M97" s="0">
+        <v>15</v>
+      </c>
+      <c r="N97" s="0">
+        <v>5</v>
+      </c>
+      <c r="O97" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P97" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q97" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="0">
+        <v>105</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F98" s="0">
+        <v>6</v>
+      </c>
+      <c r="G98" s="0">
+        <v>10</v>
+      </c>
+      <c r="H98" s="0">
+        <v>40</v>
+      </c>
+      <c r="I98" s="0"/>
+      <c r="J98" s="0"/>
+      <c r="K98" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L98" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="M98" s="0">
+        <v>15</v>
+      </c>
+      <c r="N98" s="0">
+        <v>50</v>
+      </c>
+      <c r="O98" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P98" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q98" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="0">
+        <v>105</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="0">
+        <v>7</v>
+      </c>
+      <c r="G99" s="0">
+        <v>10</v>
+      </c>
+      <c r="H99" s="0">
+        <v>40</v>
+      </c>
+      <c r="I99" s="0"/>
+      <c r="J99" s="0"/>
+      <c r="K99" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L99" s="0">
+        <v>0.029999999999999999</v>
+      </c>
+      <c r="M99" s="0">
+        <v>15</v>
+      </c>
+      <c r="N99" s="0">
+        <v>95</v>
+      </c>
+      <c r="O99" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P99" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q99" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>105</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="0">
+        <v>8</v>
+      </c>
+      <c r="G100" s="0">
+        <v>10</v>
+      </c>
+      <c r="H100" s="0">
+        <v>40</v>
+      </c>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
+      <c r="K100" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L100" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="M100" s="0">
+        <v>15</v>
+      </c>
+      <c r="N100" s="0">
+        <v>5</v>
+      </c>
+      <c r="O100" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P100" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q100" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>105</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="0">
+        <v>9</v>
+      </c>
+      <c r="G101" s="0">
+        <v>10</v>
+      </c>
+      <c r="H101" s="0">
+        <v>40</v>
+      </c>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+      <c r="K101" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L101" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="M101" s="0">
+        <v>15</v>
+      </c>
+      <c r="N101" s="0">
+        <v>50</v>
+      </c>
+      <c r="O101" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P101" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q101" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>105</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F102" s="0">
+        <v>10</v>
+      </c>
+      <c r="G102" s="0">
+        <v>10</v>
+      </c>
+      <c r="H102" s="0">
+        <v>40</v>
+      </c>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
+      <c r="K102" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L102" s="0">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="M102" s="0">
+        <v>15</v>
+      </c>
+      <c r="N102" s="0">
+        <v>95</v>
+      </c>
+      <c r="O102" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P102" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q102" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>105</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F103" s="0">
+        <v>11</v>
+      </c>
+      <c r="G103" s="0">
+        <v>10</v>
+      </c>
+      <c r="H103" s="0">
+        <v>40</v>
+      </c>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L103" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="M103" s="0">
+        <v>15</v>
+      </c>
+      <c r="N103" s="0">
+        <v>5</v>
+      </c>
+      <c r="O103" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P103" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q103" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>105</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="0">
+        <v>12</v>
+      </c>
+      <c r="G104" s="0">
+        <v>10</v>
+      </c>
+      <c r="H104" s="0">
+        <v>40</v>
+      </c>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
+      <c r="K104" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L104" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="M104" s="0">
+        <v>15</v>
+      </c>
+      <c r="N104" s="0">
+        <v>50</v>
+      </c>
+      <c r="O104" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P104" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q104" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>105</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F105" s="0">
+        <v>13</v>
+      </c>
+      <c r="G105" s="0">
+        <v>10</v>
+      </c>
+      <c r="H105" s="0">
+        <v>40</v>
+      </c>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
+      <c r="K105" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L105" s="0">
+        <v>0.050000000000000003</v>
+      </c>
+      <c r="M105" s="0">
+        <v>15</v>
+      </c>
+      <c r="N105" s="0">
+        <v>95</v>
+      </c>
+      <c r="O105" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P105" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q105" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F106" s="0">
+        <v>14</v>
+      </c>
+      <c r="G106" s="0">
+        <v>10</v>
+      </c>
+      <c r="H106" s="0">
+        <v>40</v>
+      </c>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
+      <c r="K106" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L106" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="M106" s="0">
+        <v>15</v>
+      </c>
+      <c r="N106" s="0">
+        <v>5</v>
+      </c>
+      <c r="O106" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P106" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q106" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>105</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F107" s="0">
+        <v>15</v>
+      </c>
+      <c r="G107" s="0">
+        <v>10</v>
+      </c>
+      <c r="H107" s="0">
+        <v>40</v>
+      </c>
+      <c r="I107" s="0"/>
+      <c r="J107" s="0"/>
+      <c r="K107" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L107" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="M107" s="0">
+        <v>15</v>
+      </c>
+      <c r="N107" s="0">
+        <v>50</v>
+      </c>
+      <c r="O107" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P107" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q107" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>105</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F108" s="0">
+        <v>16</v>
+      </c>
+      <c r="G108" s="0">
+        <v>10</v>
+      </c>
+      <c r="H108" s="0">
+        <v>40</v>
+      </c>
+      <c r="I108" s="0"/>
+      <c r="J108" s="0"/>
+      <c r="K108" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L108" s="0">
+        <v>0.059999999999999998</v>
+      </c>
+      <c r="M108" s="0">
+        <v>15</v>
+      </c>
+      <c r="N108" s="0">
+        <v>95</v>
+      </c>
+      <c r="O108" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P108" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q108" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>105</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="0">
+        <v>17</v>
+      </c>
+      <c r="G109" s="0">
+        <v>10</v>
+      </c>
+      <c r="H109" s="0">
+        <v>40</v>
+      </c>
+      <c r="I109" s="0"/>
+      <c r="J109" s="0"/>
+      <c r="K109" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L109" s="0">
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="M109" s="0">
+        <v>15</v>
+      </c>
+      <c r="N109" s="0">
+        <v>5</v>
+      </c>
+      <c r="O109" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P109" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q109" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>105</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F110" s="0">
+        <v>18</v>
+      </c>
+      <c r="G110" s="0">
+        <v>10</v>
+      </c>
+      <c r="H110" s="0">
+        <v>40</v>
+      </c>
+      <c r="I110" s="0"/>
+      <c r="J110" s="0"/>
+      <c r="K110" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L110" s="0">
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="M110" s="0">
+        <v>15</v>
+      </c>
+      <c r="N110" s="0">
+        <v>50</v>
+      </c>
+      <c r="O110" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P110" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q110" s="0">
+        <v>0.80000000000000004</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>105</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F111" s="0">
+        <v>19</v>
+      </c>
+      <c r="G111" s="0">
+        <v>10</v>
+      </c>
+      <c r="H111" s="0">
+        <v>40</v>
+      </c>
+      <c r="I111" s="0"/>
+      <c r="J111" s="0"/>
+      <c r="K111" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L111" s="0">
+        <v>0.14999999999999999</v>
+      </c>
+      <c r="M111" s="0">
+        <v>15</v>
+      </c>
+      <c r="N111" s="0">
+        <v>95</v>
+      </c>
+      <c r="O111" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="P111" s="0">
+        <v>6</v>
+      </c>
+      <c r="Q111" s="0">
+        <v>0.80000000000000004</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/rules/start-end effect/rules_SE.xlsx
+++ b/rules/start-end effect/rules_SE.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="31">
   <si>
     <t>pID</t>
   </si>
@@ -151,7 +151,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q111"/>
+  <dimension ref="A1:Q99"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.15625" customWidth="true"/>
@@ -4664,7 +4664,7 @@
         <v>1000</v>
       </c>
       <c r="L97" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="M97" s="0">
         <v>15</v>
@@ -4713,7 +4713,7 @@
         <v>1000</v>
       </c>
       <c r="L98" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="M98" s="0">
         <v>15</v>
@@ -4762,7 +4762,7 @@
         <v>1000</v>
       </c>
       <c r="L99" s="0">
-        <v>0.029999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="M99" s="0">
         <v>15</v>
@@ -4777,594 +4777,6 @@
         <v>6</v>
       </c>
       <c r="Q99" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="0">
-        <v>105</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="0">
-        <v>8</v>
-      </c>
-      <c r="G100" s="0">
-        <v>10</v>
-      </c>
-      <c r="H100" s="0">
-        <v>40</v>
-      </c>
-      <c r="I100" s="0"/>
-      <c r="J100" s="0"/>
-      <c r="K100" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L100" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="M100" s="0">
-        <v>15</v>
-      </c>
-      <c r="N100" s="0">
-        <v>5</v>
-      </c>
-      <c r="O100" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P100" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q100" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="0">
-        <v>105</v>
-      </c>
-      <c r="B101" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C101" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D101" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="0">
-        <v>9</v>
-      </c>
-      <c r="G101" s="0">
-        <v>10</v>
-      </c>
-      <c r="H101" s="0">
-        <v>40</v>
-      </c>
-      <c r="I101" s="0"/>
-      <c r="J101" s="0"/>
-      <c r="K101" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L101" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="M101" s="0">
-        <v>15</v>
-      </c>
-      <c r="N101" s="0">
-        <v>50</v>
-      </c>
-      <c r="O101" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P101" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q101" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="0">
-        <v>105</v>
-      </c>
-      <c r="B102" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C102" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E102" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F102" s="0">
-        <v>10</v>
-      </c>
-      <c r="G102" s="0">
-        <v>10</v>
-      </c>
-      <c r="H102" s="0">
-        <v>40</v>
-      </c>
-      <c r="I102" s="0"/>
-      <c r="J102" s="0"/>
-      <c r="K102" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L102" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="M102" s="0">
-        <v>15</v>
-      </c>
-      <c r="N102" s="0">
-        <v>95</v>
-      </c>
-      <c r="O102" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P102" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q102" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="0">
-        <v>105</v>
-      </c>
-      <c r="B103" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C103" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F103" s="0">
-        <v>11</v>
-      </c>
-      <c r="G103" s="0">
-        <v>10</v>
-      </c>
-      <c r="H103" s="0">
-        <v>40</v>
-      </c>
-      <c r="I103" s="0"/>
-      <c r="J103" s="0"/>
-      <c r="K103" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L103" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="M103" s="0">
-        <v>15</v>
-      </c>
-      <c r="N103" s="0">
-        <v>5</v>
-      </c>
-      <c r="O103" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P103" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q103" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="0">
-        <v>105</v>
-      </c>
-      <c r="B104" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C104" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E104" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" s="0">
-        <v>12</v>
-      </c>
-      <c r="G104" s="0">
-        <v>10</v>
-      </c>
-      <c r="H104" s="0">
-        <v>40</v>
-      </c>
-      <c r="I104" s="0"/>
-      <c r="J104" s="0"/>
-      <c r="K104" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L104" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="M104" s="0">
-        <v>15</v>
-      </c>
-      <c r="N104" s="0">
-        <v>50</v>
-      </c>
-      <c r="O104" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P104" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q104" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="0">
-        <v>105</v>
-      </c>
-      <c r="B105" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C105" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D105" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E105" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F105" s="0">
-        <v>13</v>
-      </c>
-      <c r="G105" s="0">
-        <v>10</v>
-      </c>
-      <c r="H105" s="0">
-        <v>40</v>
-      </c>
-      <c r="I105" s="0"/>
-      <c r="J105" s="0"/>
-      <c r="K105" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L105" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="M105" s="0">
-        <v>15</v>
-      </c>
-      <c r="N105" s="0">
-        <v>95</v>
-      </c>
-      <c r="O105" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P105" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q105" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="0">
-        <v>105</v>
-      </c>
-      <c r="B106" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C106" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E106" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F106" s="0">
-        <v>14</v>
-      </c>
-      <c r="G106" s="0">
-        <v>10</v>
-      </c>
-      <c r="H106" s="0">
-        <v>40</v>
-      </c>
-      <c r="I106" s="0"/>
-      <c r="J106" s="0"/>
-      <c r="K106" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L106" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="M106" s="0">
-        <v>15</v>
-      </c>
-      <c r="N106" s="0">
-        <v>5</v>
-      </c>
-      <c r="O106" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P106" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q106" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="0">
-        <v>105</v>
-      </c>
-      <c r="B107" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C107" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D107" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F107" s="0">
-        <v>15</v>
-      </c>
-      <c r="G107" s="0">
-        <v>10</v>
-      </c>
-      <c r="H107" s="0">
-        <v>40</v>
-      </c>
-      <c r="I107" s="0"/>
-      <c r="J107" s="0"/>
-      <c r="K107" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L107" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="M107" s="0">
-        <v>15</v>
-      </c>
-      <c r="N107" s="0">
-        <v>50</v>
-      </c>
-      <c r="O107" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P107" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q107" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="0">
-        <v>105</v>
-      </c>
-      <c r="B108" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C108" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D108" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E108" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F108" s="0">
-        <v>16</v>
-      </c>
-      <c r="G108" s="0">
-        <v>10</v>
-      </c>
-      <c r="H108" s="0">
-        <v>40</v>
-      </c>
-      <c r="I108" s="0"/>
-      <c r="J108" s="0"/>
-      <c r="K108" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L108" s="0">
-        <v>0.059999999999999998</v>
-      </c>
-      <c r="M108" s="0">
-        <v>15</v>
-      </c>
-      <c r="N108" s="0">
-        <v>95</v>
-      </c>
-      <c r="O108" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P108" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q108" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="0">
-        <v>105</v>
-      </c>
-      <c r="B109" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C109" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D109" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" s="0">
-        <v>17</v>
-      </c>
-      <c r="G109" s="0">
-        <v>10</v>
-      </c>
-      <c r="H109" s="0">
-        <v>40</v>
-      </c>
-      <c r="I109" s="0"/>
-      <c r="J109" s="0"/>
-      <c r="K109" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L109" s="0">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="M109" s="0">
-        <v>15</v>
-      </c>
-      <c r="N109" s="0">
-        <v>5</v>
-      </c>
-      <c r="O109" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P109" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q109" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="0">
-        <v>105</v>
-      </c>
-      <c r="B110" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C110" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D110" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E110" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F110" s="0">
-        <v>18</v>
-      </c>
-      <c r="G110" s="0">
-        <v>10</v>
-      </c>
-      <c r="H110" s="0">
-        <v>40</v>
-      </c>
-      <c r="I110" s="0"/>
-      <c r="J110" s="0"/>
-      <c r="K110" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L110" s="0">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="M110" s="0">
-        <v>15</v>
-      </c>
-      <c r="N110" s="0">
-        <v>50</v>
-      </c>
-      <c r="O110" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P110" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q110" s="0">
-        <v>0.80000000000000004</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="0">
-        <v>105</v>
-      </c>
-      <c r="B111" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D111" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F111" s="0">
-        <v>19</v>
-      </c>
-      <c r="G111" s="0">
-        <v>10</v>
-      </c>
-      <c r="H111" s="0">
-        <v>40</v>
-      </c>
-      <c r="I111" s="0"/>
-      <c r="J111" s="0"/>
-      <c r="K111" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L111" s="0">
-        <v>0.14999999999999999</v>
-      </c>
-      <c r="M111" s="0">
-        <v>15</v>
-      </c>
-      <c r="N111" s="0">
-        <v>95</v>
-      </c>
-      <c r="O111" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P111" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q111" s="0">
         <v>0.80000000000000004</v>
       </c>
     </row>

--- a/rules/start-end effect/rules_SE.xlsx
+++ b/rules/start-end effect/rules_SE.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="32">
   <si>
     <t>pID</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>seEffectThProcessFcn</t>
+  </si>
+  <si>
+    <t>seEffectLocProcessFcn</t>
   </si>
   <si>
     <t>f0</t>
@@ -163,7 +166,7 @@
     <col min="7" max="7" width="3.26953125" customWidth="true"/>
     <col min="8" max="8" width="7.93359375" customWidth="true"/>
     <col min="9" max="9" width="6.82421875" customWidth="true"/>
-    <col min="10" max="10" width="18.82421875" customWidth="true"/>
+    <col min="10" max="10" width="19.7109375" customWidth="true"/>
     <col min="11" max="11" width="5.15625" customWidth="true"/>
     <col min="12" max="12" width="8.93359375" customWidth="true"/>
     <col min="13" max="13" width="13.37890625" customWidth="true"/>
@@ -205,25 +208,25 @@
         <v>22</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -4076,13 +4079,15 @@
         <v>4</v>
       </c>
       <c r="G84" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H84" s="0">
         <v>30</v>
       </c>
       <c r="I84" s="0"/>
-      <c r="J84" s="0"/>
+      <c r="J84" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K84" s="0">
         <v>1000</v>
       </c>
@@ -4115,13 +4120,15 @@
         <v>5</v>
       </c>
       <c r="G85" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H85" s="0">
         <v>30</v>
       </c>
       <c r="I85" s="0"/>
-      <c r="J85" s="0"/>
+      <c r="J85" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K85" s="0">
         <v>1000</v>
       </c>
@@ -4160,13 +4167,15 @@
         <v>6</v>
       </c>
       <c r="G86" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H86" s="0">
         <v>30</v>
       </c>
       <c r="I86" s="0"/>
-      <c r="J86" s="0"/>
+      <c r="J86" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K86" s="0">
         <v>1000</v>
       </c>
@@ -4205,13 +4214,15 @@
         <v>7</v>
       </c>
       <c r="G87" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H87" s="0">
         <v>30</v>
       </c>
       <c r="I87" s="0"/>
-      <c r="J87" s="0"/>
+      <c r="J87" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K87" s="0">
         <v>1000</v>
       </c>
@@ -4250,13 +4261,15 @@
         <v>8</v>
       </c>
       <c r="G88" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H88" s="0">
         <v>30</v>
       </c>
       <c r="I88" s="0"/>
-      <c r="J88" s="0"/>
+      <c r="J88" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K88" s="0">
         <v>1000</v>
       </c>
@@ -4295,13 +4308,15 @@
         <v>9</v>
       </c>
       <c r="G89" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" s="0">
         <v>30</v>
       </c>
       <c r="I89" s="0"/>
-      <c r="J89" s="0"/>
+      <c r="J89" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K89" s="0">
         <v>1000</v>
       </c>
@@ -4340,13 +4355,15 @@
         <v>10</v>
       </c>
       <c r="G90" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H90" s="0">
         <v>30</v>
       </c>
       <c r="I90" s="0"/>
-      <c r="J90" s="0"/>
+      <c r="J90" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K90" s="0">
         <v>1000</v>
       </c>
@@ -4385,13 +4402,15 @@
         <v>11</v>
       </c>
       <c r="G91" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H91" s="0">
         <v>30</v>
       </c>
       <c r="I91" s="0"/>
-      <c r="J91" s="0"/>
+      <c r="J91" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K91" s="0">
         <v>1000</v>
       </c>
@@ -4430,13 +4449,15 @@
         <v>12</v>
       </c>
       <c r="G92" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H92" s="0">
         <v>30</v>
       </c>
       <c r="I92" s="0"/>
-      <c r="J92" s="0"/>
+      <c r="J92" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K92" s="0">
         <v>1000</v>
       </c>
@@ -4475,13 +4496,15 @@
         <v>13</v>
       </c>
       <c r="G93" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H93" s="0">
         <v>30</v>
       </c>
       <c r="I93" s="0"/>
-      <c r="J93" s="0"/>
+      <c r="J93" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K93" s="0">
         <v>1000</v>
       </c>
@@ -4520,13 +4543,15 @@
         <v>14</v>
       </c>
       <c r="G94" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H94" s="0">
         <v>30</v>
       </c>
       <c r="I94" s="0"/>
-      <c r="J94" s="0"/>
+      <c r="J94" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K94" s="0">
         <v>1000</v>
       </c>
@@ -4565,13 +4590,15 @@
         <v>15</v>
       </c>
       <c r="G95" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H95" s="0">
         <v>30</v>
       </c>
       <c r="I95" s="0"/>
-      <c r="J95" s="0"/>
+      <c r="J95" s="0" t="s">
+        <v>24</v>
+      </c>
       <c r="K95" s="0">
         <v>1000</v>
       </c>

--- a/rules/start-end effect/rules_SE.xlsx
+++ b/rules/start-end effect/rules_SE.xlsx
@@ -1428,7 +1428,7 @@
         <v>23</v>
       </c>
       <c r="K27" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L27" s="0"/>
       <c r="M27" s="0"/>
@@ -1469,7 +1469,7 @@
         <v>23</v>
       </c>
       <c r="K28" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L28" s="0">
         <v>0.029999999999999999</v>
@@ -1516,7 +1516,7 @@
         <v>23</v>
       </c>
       <c r="K29" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L29" s="0">
         <v>0.029999999999999999</v>
@@ -1563,7 +1563,7 @@
         <v>23</v>
       </c>
       <c r="K30" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L30" s="0">
         <v>0.029999999999999999</v>
@@ -1610,7 +1610,7 @@
         <v>23</v>
       </c>
       <c r="K31" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L31" s="0">
         <v>0.040000000000000001</v>
@@ -1657,7 +1657,7 @@
         <v>23</v>
       </c>
       <c r="K32" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L32" s="0">
         <v>0.040000000000000001</v>
@@ -1704,7 +1704,7 @@
         <v>23</v>
       </c>
       <c r="K33" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L33" s="0">
         <v>0.040000000000000001</v>
@@ -1751,7 +1751,7 @@
         <v>23</v>
       </c>
       <c r="K34" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L34" s="0">
         <v>0.050000000000000003</v>
@@ -1798,7 +1798,7 @@
         <v>23</v>
       </c>
       <c r="K35" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L35" s="0">
         <v>0.050000000000000003</v>
@@ -1845,7 +1845,7 @@
         <v>23</v>
       </c>
       <c r="K36" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L36" s="0">
         <v>0.050000000000000003</v>
@@ -1892,7 +1892,7 @@
         <v>23</v>
       </c>
       <c r="K37" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L37" s="0">
         <v>0.059999999999999998</v>
@@ -1939,7 +1939,7 @@
         <v>23</v>
       </c>
       <c r="K38" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L38" s="0">
         <v>0.059999999999999998</v>
@@ -1986,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="K39" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L39" s="0">
         <v>0.059999999999999998</v>
@@ -2033,7 +2033,7 @@
         <v>23</v>
       </c>
       <c r="K40" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L40" s="0">
         <v>0.070000000000000007</v>
@@ -2080,7 +2080,7 @@
         <v>23</v>
       </c>
       <c r="K41" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L41" s="0">
         <v>0.070000000000000007</v>
@@ -2127,7 +2127,7 @@
         <v>23</v>
       </c>
       <c r="K42" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L42" s="0">
         <v>0.070000000000000007</v>
@@ -2174,7 +2174,7 @@
         <v>23</v>
       </c>
       <c r="K43" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L43" s="0">
         <v>0.080000000000000002</v>
@@ -2221,7 +2221,7 @@
         <v>23</v>
       </c>
       <c r="K44" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L44" s="0">
         <v>0.080000000000000002</v>
@@ -2268,7 +2268,7 @@
         <v>23</v>
       </c>
       <c r="K45" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L45" s="0">
         <v>0.080000000000000002</v>
@@ -2315,7 +2315,7 @@
         <v>23</v>
       </c>
       <c r="K46" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L46" s="0">
         <v>0.089999999999999997</v>
@@ -2362,7 +2362,7 @@
         <v>23</v>
       </c>
       <c r="K47" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L47" s="0">
         <v>0.089999999999999997</v>
@@ -2409,7 +2409,7 @@
         <v>23</v>
       </c>
       <c r="K48" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L48" s="0">
         <v>0.089999999999999997</v>
@@ -2456,7 +2456,7 @@
         <v>23</v>
       </c>
       <c r="K49" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L49" s="0">
         <v>0.10000000000000001</v>
@@ -2503,7 +2503,7 @@
         <v>23</v>
       </c>
       <c r="K50" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L50" s="0">
         <v>0.10000000000000001</v>
@@ -2550,7 +2550,7 @@
         <v>23</v>
       </c>
       <c r="K51" s="0">
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="L51" s="0">
         <v>0.10000000000000001</v>

--- a/rules/start-end effect/rules_SE.xlsx
+++ b/rules/start-end effect/rules_SE.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="27">
   <si>
     <t>pID</t>
   </si>
@@ -21,25 +21,25 @@
     <t>node0Hint</t>
   </si>
   <si>
-    <t>start-end效应部分</t>
+    <t>Start-end效应</t>
   </si>
   <si>
     <t>nodeHint</t>
   </si>
   <si>
-    <t>预实验阶段-阈值</t>
+    <t>1-准备阶段(1k&amp;4k)</t>
   </si>
   <si>
-    <t>第一阶段-阈值-1k</t>
+    <t>2-阈值阶段(1k)</t>
   </si>
   <si>
-    <t>第一阶段-阈值-xk</t>
+    <t>3-位置阶段(1k)</t>
   </si>
   <si>
-    <t>第三阶段-位置</t>
+    <t>3-时长补充(1k)</t>
   </si>
   <si>
-    <t>第四阶段-MMN</t>
+    <t>4-阈值阶段(4k)</t>
   </si>
   <si>
     <t>apType</t>
@@ -48,25 +48,22 @@
     <t>active</t>
   </si>
   <si>
-    <t>passive</t>
-  </si>
-  <si>
     <t>protocol</t>
   </si>
   <si>
-    <t>SE active0</t>
+    <t>SE th-pre(1k&amp;4k)</t>
   </si>
   <si>
-    <t>SE active1</t>
+    <t>SE th-1k</t>
   </si>
   <si>
-    <t>SE active2</t>
+    <t>SE loc-1k</t>
   </si>
   <si>
-    <t>SE active3</t>
+    <t>SE dur-1k</t>
   </si>
   <si>
-    <t>SE passive1</t>
+    <t>SE th-4k</t>
   </si>
   <si>
     <t>code</t>
@@ -84,16 +81,10 @@
     <t>processFcn</t>
   </si>
   <si>
-    <t>seEffectThProcessFcn</t>
-  </si>
-  <si>
-    <t>seEffectLocProcessFcn</t>
-  </si>
-  <si>
     <t>f0</t>
   </si>
   <si>
-    <t>deltaAmp</t>
+    <t>f1</t>
   </si>
   <si>
     <t>nChangePeriod</t>
@@ -103,12 +94,6 @@
   </si>
   <si>
     <t>dur</t>
-  </si>
-  <si>
-    <t>nSTD</t>
-  </si>
-  <si>
-    <t>ISI</t>
   </si>
 </sst>
 </file>
@@ -154,26 +139,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q99"/>
+  <dimension ref="A1:O113"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.15625" customWidth="true"/>
-    <col min="2" max="2" width="16.48828125" customWidth="true"/>
-    <col min="3" max="3" width="16.37890625" customWidth="true"/>
+    <col min="2" max="2" width="12.6015625" customWidth="true"/>
+    <col min="3" max="3" width="17.046875" customWidth="true"/>
     <col min="4" max="4" width="7.046875" customWidth="true"/>
-    <col min="5" max="5" width="10.37890625" customWidth="true"/>
+    <col min="5" max="5" width="14.7109375" customWidth="true"/>
     <col min="6" max="6" width="5.15625" customWidth="true"/>
-    <col min="7" max="7" width="3.26953125" customWidth="true"/>
+    <col min="7" max="7" width="3.7109375" customWidth="true"/>
     <col min="8" max="8" width="7.93359375" customWidth="true"/>
     <col min="9" max="9" width="6.82421875" customWidth="true"/>
-    <col min="10" max="10" width="19.7109375" customWidth="true"/>
+    <col min="10" max="10" width="10.15625" customWidth="true"/>
     <col min="11" max="11" width="5.15625" customWidth="true"/>
-    <col min="12" max="12" width="8.93359375" customWidth="true"/>
+    <col min="12" max="12" width="5.15625" customWidth="true"/>
     <col min="13" max="13" width="13.37890625" customWidth="true"/>
     <col min="14" max="14" width="4.046875" customWidth="true"/>
     <col min="15" max="15" width="3.82421875" customWidth="true"/>
-    <col min="16" max="16" width="5.26953125" customWidth="true"/>
-    <col min="17" max="17" width="3.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -190,48 +173,42 @@
         <v>9</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="0" t="s">
-        <v>20</v>
-      </c>
       <c r="I1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="L1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="0" t="s">
         <v>26</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>2</v>
@@ -243,21 +220,19 @@
         <v>10</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F2" s="0">
         <v>4</v>
       </c>
       <c r="G2" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H2" s="0">
         <v>2</v>
       </c>
       <c r="I2" s="0"/>
-      <c r="J2" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J2" s="0"/>
       <c r="K2" s="0">
         <v>1000</v>
       </c>
@@ -267,12 +242,10 @@
       <c r="O2" s="0">
         <v>0.5</v>
       </c>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>2</v>
@@ -284,42 +257,38 @@
         <v>10</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" s="0">
         <v>5</v>
       </c>
       <c r="G3" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H3" s="0">
         <v>2</v>
       </c>
       <c r="I3" s="0"/>
-      <c r="J3" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J3" s="0"/>
       <c r="K3" s="0">
         <v>1000</v>
       </c>
       <c r="L3" s="0">
-        <v>0.029999999999999999</v>
+        <v>1005</v>
       </c>
       <c r="M3" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N3" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O3" s="0">
         <v>0.5</v>
       </c>
-      <c r="P3" s="0"/>
-      <c r="Q3" s="0"/>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>2</v>
@@ -331,29 +300,27 @@
         <v>10</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="0">
         <v>6</v>
       </c>
       <c r="G4" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H4" s="0">
         <v>2</v>
       </c>
       <c r="I4" s="0"/>
-      <c r="J4" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J4" s="0"/>
       <c r="K4" s="0">
         <v>1000</v>
       </c>
       <c r="L4" s="0">
-        <v>0.029999999999999999</v>
+        <v>1005</v>
       </c>
       <c r="M4" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N4" s="0">
         <v>50</v>
@@ -361,12 +328,10 @@
       <c r="O4" s="0">
         <v>0.5</v>
       </c>
-      <c r="P4" s="0"/>
-      <c r="Q4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>2</v>
@@ -378,42 +343,38 @@
         <v>10</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="0">
         <v>7</v>
       </c>
       <c r="G5" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H5" s="0">
         <v>2</v>
       </c>
       <c r="I5" s="0"/>
-      <c r="J5" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J5" s="0"/>
       <c r="K5" s="0">
         <v>1000</v>
       </c>
       <c r="L5" s="0">
-        <v>0.029999999999999999</v>
+        <v>1005</v>
       </c>
       <c r="M5" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N5" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O5" s="0">
         <v>0.5</v>
       </c>
-      <c r="P5" s="0"/>
-      <c r="Q5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>2</v>
@@ -425,42 +386,38 @@
         <v>10</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="0">
         <v>8</v>
       </c>
       <c r="G6" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H6" s="0">
         <v>2</v>
       </c>
       <c r="I6" s="0"/>
-      <c r="J6" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J6" s="0"/>
       <c r="K6" s="0">
         <v>1000</v>
       </c>
       <c r="L6" s="0">
-        <v>0.040000000000000001</v>
+        <v>1010</v>
       </c>
       <c r="M6" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N6" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O6" s="0">
         <v>0.5</v>
       </c>
-      <c r="P6" s="0"/>
-      <c r="Q6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>2</v>
@@ -472,29 +429,27 @@
         <v>10</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="0">
         <v>9</v>
       </c>
       <c r="G7" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H7" s="0">
         <v>2</v>
       </c>
       <c r="I7" s="0"/>
-      <c r="J7" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J7" s="0"/>
       <c r="K7" s="0">
         <v>1000</v>
       </c>
       <c r="L7" s="0">
-        <v>0.040000000000000001</v>
+        <v>1010</v>
       </c>
       <c r="M7" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N7" s="0">
         <v>50</v>
@@ -502,12 +457,10 @@
       <c r="O7" s="0">
         <v>0.5</v>
       </c>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>2</v>
@@ -519,42 +472,38 @@
         <v>10</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="0">
         <v>10</v>
       </c>
       <c r="G8" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H8" s="0">
         <v>2</v>
       </c>
       <c r="I8" s="0"/>
-      <c r="J8" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J8" s="0"/>
       <c r="K8" s="0">
         <v>1000</v>
       </c>
       <c r="L8" s="0">
-        <v>0.040000000000000001</v>
+        <v>1010</v>
       </c>
       <c r="M8" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N8" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O8" s="0">
         <v>0.5</v>
       </c>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>2</v>
@@ -566,42 +515,38 @@
         <v>10</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="0">
         <v>11</v>
       </c>
       <c r="G9" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H9" s="0">
         <v>2</v>
       </c>
       <c r="I9" s="0"/>
-      <c r="J9" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J9" s="0"/>
       <c r="K9" s="0">
         <v>1000</v>
       </c>
       <c r="L9" s="0">
-        <v>0.050000000000000003</v>
+        <v>1015</v>
       </c>
       <c r="M9" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N9" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O9" s="0">
         <v>0.5</v>
       </c>
-      <c r="P9" s="0"/>
-      <c r="Q9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>2</v>
@@ -613,29 +558,27 @@
         <v>10</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F10" s="0">
         <v>12</v>
       </c>
       <c r="G10" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H10" s="0">
         <v>2</v>
       </c>
       <c r="I10" s="0"/>
-      <c r="J10" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J10" s="0"/>
       <c r="K10" s="0">
         <v>1000</v>
       </c>
       <c r="L10" s="0">
-        <v>0.050000000000000003</v>
+        <v>1015</v>
       </c>
       <c r="M10" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N10" s="0">
         <v>50</v>
@@ -643,12 +586,10 @@
       <c r="O10" s="0">
         <v>0.5</v>
       </c>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>2</v>
@@ -660,42 +601,38 @@
         <v>10</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" s="0">
         <v>13</v>
       </c>
       <c r="G11" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H11" s="0">
         <v>2</v>
       </c>
       <c r="I11" s="0"/>
-      <c r="J11" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J11" s="0"/>
       <c r="K11" s="0">
         <v>1000</v>
       </c>
       <c r="L11" s="0">
-        <v>0.050000000000000003</v>
+        <v>1015</v>
       </c>
       <c r="M11" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N11" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O11" s="0">
         <v>0.5</v>
       </c>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>2</v>
@@ -707,42 +644,38 @@
         <v>10</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="0">
         <v>14</v>
       </c>
       <c r="G12" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H12" s="0">
         <v>2</v>
       </c>
       <c r="I12" s="0"/>
-      <c r="J12" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J12" s="0"/>
       <c r="K12" s="0">
         <v>1000</v>
       </c>
       <c r="L12" s="0">
-        <v>0.059999999999999998</v>
+        <v>1020</v>
       </c>
       <c r="M12" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N12" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O12" s="0">
         <v>0.5</v>
       </c>
-      <c r="P12" s="0"/>
-      <c r="Q12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>2</v>
@@ -754,29 +687,27 @@
         <v>10</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F13" s="0">
         <v>15</v>
       </c>
       <c r="G13" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H13" s="0">
         <v>2</v>
       </c>
       <c r="I13" s="0"/>
-      <c r="J13" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J13" s="0"/>
       <c r="K13" s="0">
         <v>1000</v>
       </c>
       <c r="L13" s="0">
-        <v>0.059999999999999998</v>
+        <v>1020</v>
       </c>
       <c r="M13" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N13" s="0">
         <v>50</v>
@@ -784,12 +715,10 @@
       <c r="O13" s="0">
         <v>0.5</v>
       </c>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B14" s="0" t="s">
         <v>2</v>
@@ -801,42 +730,38 @@
         <v>10</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F14" s="0">
         <v>16</v>
       </c>
       <c r="G14" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H14" s="0">
         <v>2</v>
       </c>
       <c r="I14" s="0"/>
-      <c r="J14" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J14" s="0"/>
       <c r="K14" s="0">
         <v>1000</v>
       </c>
       <c r="L14" s="0">
-        <v>0.059999999999999998</v>
+        <v>1020</v>
       </c>
       <c r="M14" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N14" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O14" s="0">
         <v>0.5</v>
       </c>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B15" s="0" t="s">
         <v>2</v>
@@ -848,42 +773,38 @@
         <v>10</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F15" s="0">
         <v>17</v>
       </c>
       <c r="G15" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H15" s="0">
         <v>2</v>
       </c>
       <c r="I15" s="0"/>
-      <c r="J15" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J15" s="0"/>
       <c r="K15" s="0">
         <v>1000</v>
       </c>
       <c r="L15" s="0">
-        <v>0.070000000000000007</v>
+        <v>1030</v>
       </c>
       <c r="M15" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N15" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O15" s="0">
         <v>0.5</v>
       </c>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>2</v>
@@ -895,29 +816,27 @@
         <v>10</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F16" s="0">
         <v>18</v>
       </c>
       <c r="G16" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H16" s="0">
         <v>2</v>
       </c>
       <c r="I16" s="0"/>
-      <c r="J16" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J16" s="0"/>
       <c r="K16" s="0">
         <v>1000</v>
       </c>
       <c r="L16" s="0">
-        <v>0.070000000000000007</v>
+        <v>1030</v>
       </c>
       <c r="M16" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N16" s="0">
         <v>50</v>
@@ -925,12 +844,10 @@
       <c r="O16" s="0">
         <v>0.5</v>
       </c>
-      <c r="P16" s="0"/>
-      <c r="Q16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>2</v>
@@ -942,42 +859,38 @@
         <v>10</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="0">
         <v>19</v>
       </c>
       <c r="G17" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H17" s="0">
         <v>2</v>
       </c>
       <c r="I17" s="0"/>
-      <c r="J17" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J17" s="0"/>
       <c r="K17" s="0">
         <v>1000</v>
       </c>
       <c r="L17" s="0">
-        <v>0.070000000000000007</v>
+        <v>1030</v>
       </c>
       <c r="M17" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N17" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O17" s="0">
         <v>0.5</v>
       </c>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B18" s="0" t="s">
         <v>2</v>
@@ -989,42 +902,38 @@
         <v>10</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18" s="0">
         <v>20</v>
       </c>
       <c r="G18" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H18" s="0">
         <v>2</v>
       </c>
       <c r="I18" s="0"/>
-      <c r="J18" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J18" s="0"/>
       <c r="K18" s="0">
         <v>1000</v>
       </c>
       <c r="L18" s="0">
-        <v>0.080000000000000002</v>
+        <v>1040</v>
       </c>
       <c r="M18" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N18" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O18" s="0">
         <v>0.5</v>
       </c>
-      <c r="P18" s="0"/>
-      <c r="Q18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>2</v>
@@ -1036,29 +945,27 @@
         <v>10</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="0">
         <v>21</v>
       </c>
       <c r="G19" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H19" s="0">
         <v>2</v>
       </c>
       <c r="I19" s="0"/>
-      <c r="J19" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J19" s="0"/>
       <c r="K19" s="0">
         <v>1000</v>
       </c>
       <c r="L19" s="0">
-        <v>0.080000000000000002</v>
+        <v>1040</v>
       </c>
       <c r="M19" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N19" s="0">
         <v>50</v>
@@ -1066,12 +973,10 @@
       <c r="O19" s="0">
         <v>0.5</v>
       </c>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>2</v>
@@ -1083,42 +988,38 @@
         <v>10</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F20" s="0">
         <v>22</v>
       </c>
       <c r="G20" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H20" s="0">
         <v>2</v>
       </c>
       <c r="I20" s="0"/>
-      <c r="J20" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J20" s="0"/>
       <c r="K20" s="0">
         <v>1000</v>
       </c>
       <c r="L20" s="0">
-        <v>0.080000000000000002</v>
+        <v>1040</v>
       </c>
       <c r="M20" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N20" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O20" s="0">
         <v>0.5</v>
       </c>
-      <c r="P20" s="0"/>
-      <c r="Q20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>2</v>
@@ -1130,42 +1031,38 @@
         <v>10</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F21" s="0">
         <v>23</v>
       </c>
       <c r="G21" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H21" s="0">
         <v>2</v>
       </c>
       <c r="I21" s="0"/>
-      <c r="J21" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J21" s="0"/>
       <c r="K21" s="0">
         <v>1000</v>
       </c>
       <c r="L21" s="0">
-        <v>0.089999999999999997</v>
+        <v>1050</v>
       </c>
       <c r="M21" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N21" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O21" s="0">
         <v>0.5</v>
       </c>
-      <c r="P21" s="0"/>
-      <c r="Q21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>2</v>
@@ -1177,29 +1074,27 @@
         <v>10</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F22" s="0">
         <v>24</v>
       </c>
       <c r="G22" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H22" s="0">
         <v>2</v>
       </c>
       <c r="I22" s="0"/>
-      <c r="J22" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J22" s="0"/>
       <c r="K22" s="0">
         <v>1000</v>
       </c>
       <c r="L22" s="0">
-        <v>0.089999999999999997</v>
+        <v>1050</v>
       </c>
       <c r="M22" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N22" s="0">
         <v>50</v>
@@ -1207,12 +1102,10 @@
       <c r="O22" s="0">
         <v>0.5</v>
       </c>
-      <c r="P22" s="0"/>
-      <c r="Q22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>2</v>
@@ -1224,42 +1117,38 @@
         <v>10</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F23" s="0">
         <v>25</v>
       </c>
       <c r="G23" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H23" s="0">
         <v>2</v>
       </c>
       <c r="I23" s="0"/>
-      <c r="J23" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J23" s="0"/>
       <c r="K23" s="0">
         <v>1000</v>
       </c>
       <c r="L23" s="0">
-        <v>0.089999999999999997</v>
+        <v>1050</v>
       </c>
       <c r="M23" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N23" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O23" s="0">
         <v>0.5</v>
       </c>
-      <c r="P23" s="0"/>
-      <c r="Q23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>2</v>
@@ -1271,42 +1160,38 @@
         <v>10</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F24" s="0">
         <v>26</v>
       </c>
       <c r="G24" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H24" s="0">
         <v>2</v>
       </c>
       <c r="I24" s="0"/>
-      <c r="J24" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J24" s="0"/>
       <c r="K24" s="0">
         <v>1000</v>
       </c>
       <c r="L24" s="0">
-        <v>0.10000000000000001</v>
+        <v>1060</v>
       </c>
       <c r="M24" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N24" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O24" s="0">
         <v>0.5</v>
       </c>
-      <c r="P24" s="0"/>
-      <c r="Q24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>2</v>
@@ -1318,29 +1203,27 @@
         <v>10</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F25" s="0">
         <v>27</v>
       </c>
       <c r="G25" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H25" s="0">
         <v>2</v>
       </c>
       <c r="I25" s="0"/>
-      <c r="J25" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J25" s="0"/>
       <c r="K25" s="0">
         <v>1000</v>
       </c>
       <c r="L25" s="0">
-        <v>0.10000000000000001</v>
+        <v>1060</v>
       </c>
       <c r="M25" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N25" s="0">
         <v>50</v>
@@ -1348,12 +1231,10 @@
       <c r="O25" s="0">
         <v>0.5</v>
       </c>
-      <c r="P25" s="0"/>
-      <c r="Q25" s="0"/>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>2</v>
@@ -1365,42 +1246,38 @@
         <v>10</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="0">
         <v>28</v>
       </c>
       <c r="G26" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H26" s="0">
         <v>2</v>
       </c>
       <c r="I26" s="0"/>
-      <c r="J26" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J26" s="0"/>
       <c r="K26" s="0">
         <v>1000</v>
       </c>
       <c r="L26" s="0">
-        <v>0.10000000000000001</v>
+        <v>1060</v>
       </c>
       <c r="M26" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N26" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O26" s="0">
         <v>0.5</v>
       </c>
-      <c r="P26" s="0"/>
-      <c r="Q26" s="0"/>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>2</v>
@@ -1412,36 +1289,38 @@
         <v>10</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F27" s="0">
         <v>29</v>
       </c>
       <c r="G27" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H27" s="0">
         <v>2</v>
       </c>
       <c r="I27" s="0"/>
-      <c r="J27" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J27" s="0"/>
       <c r="K27" s="0">
-        <v>4000</v>
-      </c>
-      <c r="L27" s="0"/>
-      <c r="M27" s="0"/>
-      <c r="N27" s="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L27" s="0">
+        <v>1080</v>
+      </c>
+      <c r="M27" s="0">
+        <v>20</v>
+      </c>
+      <c r="N27" s="0">
+        <v>10</v>
+      </c>
       <c r="O27" s="0">
         <v>0.5</v>
       </c>
-      <c r="P27" s="0"/>
-      <c r="Q27" s="0"/>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>2</v>
@@ -1453,42 +1332,38 @@
         <v>10</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="0">
         <v>30</v>
       </c>
       <c r="G28" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H28" s="0">
         <v>2</v>
       </c>
       <c r="I28" s="0"/>
-      <c r="J28" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J28" s="0"/>
       <c r="K28" s="0">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L28" s="0">
-        <v>0.029999999999999999</v>
+        <v>1080</v>
       </c>
       <c r="M28" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N28" s="0">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O28" s="0">
         <v>0.5</v>
       </c>
-      <c r="P28" s="0"/>
-      <c r="Q28" s="0"/>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>2</v>
@@ -1500,42 +1375,38 @@
         <v>10</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F29" s="0">
         <v>31</v>
       </c>
       <c r="G29" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H29" s="0">
         <v>2</v>
       </c>
       <c r="I29" s="0"/>
-      <c r="J29" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J29" s="0"/>
       <c r="K29" s="0">
-        <v>4000</v>
+        <v>1000</v>
       </c>
       <c r="L29" s="0">
-        <v>0.029999999999999999</v>
+        <v>1080</v>
       </c>
       <c r="M29" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N29" s="0">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="O29" s="0">
         <v>0.5</v>
       </c>
-      <c r="P29" s="0"/>
-      <c r="Q29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>2</v>
@@ -1547,42 +1418,32 @@
         <v>10</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F30" s="0">
         <v>32</v>
       </c>
       <c r="G30" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H30" s="0">
         <v>2</v>
       </c>
       <c r="I30" s="0"/>
-      <c r="J30" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J30" s="0"/>
       <c r="K30" s="0">
         <v>4000</v>
       </c>
-      <c r="L30" s="0">
-        <v>0.029999999999999999</v>
-      </c>
-      <c r="M30" s="0">
-        <v>15</v>
-      </c>
-      <c r="N30" s="0">
-        <v>95</v>
-      </c>
+      <c r="L30" s="0"/>
+      <c r="M30" s="0"/>
+      <c r="N30" s="0"/>
       <c r="O30" s="0">
         <v>0.5</v>
       </c>
-      <c r="P30" s="0"/>
-      <c r="Q30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>2</v>
@@ -1594,42 +1455,38 @@
         <v>10</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F31" s="0">
         <v>33</v>
       </c>
       <c r="G31" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H31" s="0">
         <v>2</v>
       </c>
       <c r="I31" s="0"/>
-      <c r="J31" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J31" s="0"/>
       <c r="K31" s="0">
         <v>4000</v>
       </c>
       <c r="L31" s="0">
-        <v>0.040000000000000001</v>
+        <v>4020</v>
       </c>
       <c r="M31" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N31" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O31" s="0">
         <v>0.5</v>
       </c>
-      <c r="P31" s="0"/>
-      <c r="Q31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>2</v>
@@ -1641,29 +1498,27 @@
         <v>10</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F32" s="0">
         <v>34</v>
       </c>
       <c r="G32" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H32" s="0">
         <v>2</v>
       </c>
       <c r="I32" s="0"/>
-      <c r="J32" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J32" s="0"/>
       <c r="K32" s="0">
         <v>4000</v>
       </c>
       <c r="L32" s="0">
-        <v>0.040000000000000001</v>
+        <v>4020</v>
       </c>
       <c r="M32" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N32" s="0">
         <v>50</v>
@@ -1671,12 +1526,10 @@
       <c r="O32" s="0">
         <v>0.5</v>
       </c>
-      <c r="P32" s="0"/>
-      <c r="Q32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>2</v>
@@ -1688,42 +1541,38 @@
         <v>10</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F33" s="0">
         <v>35</v>
       </c>
       <c r="G33" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H33" s="0">
         <v>2</v>
       </c>
       <c r="I33" s="0"/>
-      <c r="J33" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J33" s="0"/>
       <c r="K33" s="0">
         <v>4000</v>
       </c>
       <c r="L33" s="0">
-        <v>0.040000000000000001</v>
+        <v>4020</v>
       </c>
       <c r="M33" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N33" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O33" s="0">
         <v>0.5</v>
       </c>
-      <c r="P33" s="0"/>
-      <c r="Q33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>2</v>
@@ -1735,42 +1584,38 @@
         <v>10</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F34" s="0">
         <v>36</v>
       </c>
       <c r="G34" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H34" s="0">
         <v>2</v>
       </c>
       <c r="I34" s="0"/>
-      <c r="J34" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J34" s="0"/>
       <c r="K34" s="0">
         <v>4000</v>
       </c>
       <c r="L34" s="0">
-        <v>0.050000000000000003</v>
+        <v>4040</v>
       </c>
       <c r="M34" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N34" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O34" s="0">
         <v>0.5</v>
       </c>
-      <c r="P34" s="0"/>
-      <c r="Q34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>2</v>
@@ -1782,29 +1627,27 @@
         <v>10</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F35" s="0">
         <v>37</v>
       </c>
       <c r="G35" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H35" s="0">
         <v>2</v>
       </c>
       <c r="I35" s="0"/>
-      <c r="J35" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J35" s="0"/>
       <c r="K35" s="0">
         <v>4000</v>
       </c>
       <c r="L35" s="0">
-        <v>0.050000000000000003</v>
+        <v>4040</v>
       </c>
       <c r="M35" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N35" s="0">
         <v>50</v>
@@ -1812,12 +1655,10 @@
       <c r="O35" s="0">
         <v>0.5</v>
       </c>
-      <c r="P35" s="0"/>
-      <c r="Q35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>2</v>
@@ -1829,42 +1670,38 @@
         <v>10</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F36" s="0">
         <v>38</v>
       </c>
       <c r="G36" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H36" s="0">
         <v>2</v>
       </c>
       <c r="I36" s="0"/>
-      <c r="J36" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J36" s="0"/>
       <c r="K36" s="0">
         <v>4000</v>
       </c>
       <c r="L36" s="0">
-        <v>0.050000000000000003</v>
+        <v>4040</v>
       </c>
       <c r="M36" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N36" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O36" s="0">
         <v>0.5</v>
       </c>
-      <c r="P36" s="0"/>
-      <c r="Q36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>2</v>
@@ -1876,42 +1713,38 @@
         <v>10</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F37" s="0">
         <v>39</v>
       </c>
       <c r="G37" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H37" s="0">
         <v>2</v>
       </c>
       <c r="I37" s="0"/>
-      <c r="J37" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J37" s="0"/>
       <c r="K37" s="0">
         <v>4000</v>
       </c>
       <c r="L37" s="0">
-        <v>0.059999999999999998</v>
+        <v>4060</v>
       </c>
       <c r="M37" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N37" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O37" s="0">
         <v>0.5</v>
       </c>
-      <c r="P37" s="0"/>
-      <c r="Q37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>2</v>
@@ -1923,29 +1756,27 @@
         <v>10</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F38" s="0">
         <v>40</v>
       </c>
       <c r="G38" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H38" s="0">
         <v>2</v>
       </c>
       <c r="I38" s="0"/>
-      <c r="J38" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J38" s="0"/>
       <c r="K38" s="0">
         <v>4000</v>
       </c>
       <c r="L38" s="0">
-        <v>0.059999999999999998</v>
+        <v>4060</v>
       </c>
       <c r="M38" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N38" s="0">
         <v>50</v>
@@ -1953,12 +1784,10 @@
       <c r="O38" s="0">
         <v>0.5</v>
       </c>
-      <c r="P38" s="0"/>
-      <c r="Q38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>2</v>
@@ -1970,42 +1799,38 @@
         <v>10</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F39" s="0">
         <v>41</v>
       </c>
       <c r="G39" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H39" s="0">
         <v>2</v>
       </c>
       <c r="I39" s="0"/>
-      <c r="J39" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J39" s="0"/>
       <c r="K39" s="0">
         <v>4000</v>
       </c>
       <c r="L39" s="0">
-        <v>0.059999999999999998</v>
+        <v>4060</v>
       </c>
       <c r="M39" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N39" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O39" s="0">
         <v>0.5</v>
       </c>
-      <c r="P39" s="0"/>
-      <c r="Q39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>2</v>
@@ -2017,42 +1842,38 @@
         <v>10</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F40" s="0">
         <v>42</v>
       </c>
       <c r="G40" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H40" s="0">
         <v>2</v>
       </c>
       <c r="I40" s="0"/>
-      <c r="J40" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J40" s="0"/>
       <c r="K40" s="0">
         <v>4000</v>
       </c>
       <c r="L40" s="0">
-        <v>0.070000000000000007</v>
+        <v>4080</v>
       </c>
       <c r="M40" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N40" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O40" s="0">
         <v>0.5</v>
       </c>
-      <c r="P40" s="0"/>
-      <c r="Q40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>2</v>
@@ -2064,29 +1885,27 @@
         <v>10</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F41" s="0">
         <v>43</v>
       </c>
       <c r="G41" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H41" s="0">
         <v>2</v>
       </c>
       <c r="I41" s="0"/>
-      <c r="J41" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J41" s="0"/>
       <c r="K41" s="0">
         <v>4000</v>
       </c>
       <c r="L41" s="0">
-        <v>0.070000000000000007</v>
+        <v>4080</v>
       </c>
       <c r="M41" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N41" s="0">
         <v>50</v>
@@ -2094,12 +1913,10 @@
       <c r="O41" s="0">
         <v>0.5</v>
       </c>
-      <c r="P41" s="0"/>
-      <c r="Q41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>2</v>
@@ -2111,42 +1928,38 @@
         <v>10</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F42" s="0">
         <v>44</v>
       </c>
       <c r="G42" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H42" s="0">
         <v>2</v>
       </c>
       <c r="I42" s="0"/>
-      <c r="J42" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J42" s="0"/>
       <c r="K42" s="0">
         <v>4000</v>
       </c>
       <c r="L42" s="0">
-        <v>0.070000000000000007</v>
+        <v>4080</v>
       </c>
       <c r="M42" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N42" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O42" s="0">
         <v>0.5</v>
       </c>
-      <c r="P42" s="0"/>
-      <c r="Q42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>2</v>
@@ -2158,42 +1971,38 @@
         <v>10</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F43" s="0">
         <v>45</v>
       </c>
       <c r="G43" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H43" s="0">
         <v>2</v>
       </c>
       <c r="I43" s="0"/>
-      <c r="J43" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J43" s="0"/>
       <c r="K43" s="0">
         <v>4000</v>
       </c>
       <c r="L43" s="0">
-        <v>0.080000000000000002</v>
+        <v>4120</v>
       </c>
       <c r="M43" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N43" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O43" s="0">
         <v>0.5</v>
       </c>
-      <c r="P43" s="0"/>
-      <c r="Q43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>2</v>
@@ -2205,29 +2014,27 @@
         <v>10</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F44" s="0">
         <v>46</v>
       </c>
       <c r="G44" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H44" s="0">
         <v>2</v>
       </c>
       <c r="I44" s="0"/>
-      <c r="J44" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J44" s="0"/>
       <c r="K44" s="0">
         <v>4000</v>
       </c>
       <c r="L44" s="0">
-        <v>0.080000000000000002</v>
+        <v>4120</v>
       </c>
       <c r="M44" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N44" s="0">
         <v>50</v>
@@ -2235,12 +2042,10 @@
       <c r="O44" s="0">
         <v>0.5</v>
       </c>
-      <c r="P44" s="0"/>
-      <c r="Q44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>2</v>
@@ -2252,42 +2057,38 @@
         <v>10</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F45" s="0">
         <v>47</v>
       </c>
       <c r="G45" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H45" s="0">
         <v>2</v>
       </c>
       <c r="I45" s="0"/>
-      <c r="J45" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J45" s="0"/>
       <c r="K45" s="0">
         <v>4000</v>
       </c>
       <c r="L45" s="0">
-        <v>0.080000000000000002</v>
+        <v>4120</v>
       </c>
       <c r="M45" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N45" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O45" s="0">
         <v>0.5</v>
       </c>
-      <c r="P45" s="0"/>
-      <c r="Q45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>2</v>
@@ -2299,42 +2100,38 @@
         <v>10</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F46" s="0">
         <v>48</v>
       </c>
       <c r="G46" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H46" s="0">
         <v>2</v>
       </c>
       <c r="I46" s="0"/>
-      <c r="J46" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J46" s="0"/>
       <c r="K46" s="0">
         <v>4000</v>
       </c>
       <c r="L46" s="0">
-        <v>0.089999999999999997</v>
+        <v>4160</v>
       </c>
       <c r="M46" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N46" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O46" s="0">
         <v>0.5</v>
       </c>
-      <c r="P46" s="0"/>
-      <c r="Q46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>2</v>
@@ -2346,29 +2143,27 @@
         <v>10</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F47" s="0">
         <v>49</v>
       </c>
       <c r="G47" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H47" s="0">
         <v>2</v>
       </c>
       <c r="I47" s="0"/>
-      <c r="J47" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J47" s="0"/>
       <c r="K47" s="0">
         <v>4000</v>
       </c>
       <c r="L47" s="0">
-        <v>0.089999999999999997</v>
+        <v>4160</v>
       </c>
       <c r="M47" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N47" s="0">
         <v>50</v>
@@ -2376,12 +2171,10 @@
       <c r="O47" s="0">
         <v>0.5</v>
       </c>
-      <c r="P47" s="0"/>
-      <c r="Q47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>2</v>
@@ -2393,42 +2186,38 @@
         <v>10</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F48" s="0">
         <v>50</v>
       </c>
       <c r="G48" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H48" s="0">
         <v>2</v>
       </c>
       <c r="I48" s="0"/>
-      <c r="J48" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J48" s="0"/>
       <c r="K48" s="0">
         <v>4000</v>
       </c>
       <c r="L48" s="0">
-        <v>0.089999999999999997</v>
+        <v>4160</v>
       </c>
       <c r="M48" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N48" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O48" s="0">
         <v>0.5</v>
       </c>
-      <c r="P48" s="0"/>
-      <c r="Q48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>2</v>
@@ -2440,42 +2229,38 @@
         <v>10</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F49" s="0">
         <v>51</v>
       </c>
       <c r="G49" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H49" s="0">
         <v>2</v>
       </c>
       <c r="I49" s="0"/>
-      <c r="J49" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J49" s="0"/>
       <c r="K49" s="0">
         <v>4000</v>
       </c>
       <c r="L49" s="0">
-        <v>0.10000000000000001</v>
+        <v>4200</v>
       </c>
       <c r="M49" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N49" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O49" s="0">
         <v>0.5</v>
       </c>
-      <c r="P49" s="0"/>
-      <c r="Q49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>2</v>
@@ -2487,29 +2272,27 @@
         <v>10</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F50" s="0">
         <v>52</v>
       </c>
       <c r="G50" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H50" s="0">
         <v>2</v>
       </c>
       <c r="I50" s="0"/>
-      <c r="J50" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J50" s="0"/>
       <c r="K50" s="0">
         <v>4000</v>
       </c>
       <c r="L50" s="0">
-        <v>0.10000000000000001</v>
+        <v>4200</v>
       </c>
       <c r="M50" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N50" s="0">
         <v>50</v>
@@ -2517,12 +2300,10 @@
       <c r="O50" s="0">
         <v>0.5</v>
       </c>
-      <c r="P50" s="0"/>
-      <c r="Q50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>2</v>
@@ -2534,318 +2315,296 @@
         <v>10</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F51" s="0">
         <v>53</v>
       </c>
       <c r="G51" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H51" s="0">
         <v>2</v>
       </c>
       <c r="I51" s="0"/>
-      <c r="J51" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J51" s="0"/>
       <c r="K51" s="0">
         <v>4000</v>
       </c>
       <c r="L51" s="0">
-        <v>0.10000000000000001</v>
+        <v>4200</v>
       </c>
       <c r="M51" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N51" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O51" s="0">
         <v>0.5</v>
       </c>
-      <c r="P51" s="0"/>
-      <c r="Q51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F52" s="0">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G52" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H52" s="0">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I52" s="0"/>
-      <c r="J52" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J52" s="0"/>
       <c r="K52" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L52" s="0"/>
-      <c r="M52" s="0"/>
-      <c r="N52" s="0"/>
+        <v>4000</v>
+      </c>
+      <c r="L52" s="0">
+        <v>4240</v>
+      </c>
+      <c r="M52" s="0">
+        <v>20</v>
+      </c>
+      <c r="N52" s="0">
+        <v>10</v>
+      </c>
       <c r="O52" s="0">
         <v>0.5</v>
       </c>
-      <c r="P52" s="0"/>
-      <c r="Q52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F53" s="0">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G53" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H53" s="0">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I53" s="0"/>
-      <c r="J53" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J53" s="0"/>
       <c r="K53" s="0">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L53" s="0">
-        <v>0.029999999999999999</v>
+        <v>4240</v>
       </c>
       <c r="M53" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N53" s="0">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O53" s="0">
         <v>0.5</v>
       </c>
-      <c r="P53" s="0"/>
-      <c r="Q53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F54" s="0">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="G54" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H54" s="0">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I54" s="0"/>
-      <c r="J54" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J54" s="0"/>
       <c r="K54" s="0">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L54" s="0">
-        <v>0.029999999999999999</v>
+        <v>4240</v>
       </c>
       <c r="M54" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N54" s="0">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="O54" s="0">
         <v>0.5</v>
       </c>
-      <c r="P54" s="0"/>
-      <c r="Q54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F55" s="0">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="G55" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H55" s="0">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I55" s="0"/>
-      <c r="J55" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J55" s="0"/>
       <c r="K55" s="0">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L55" s="0">
-        <v>0.029999999999999999</v>
+        <v>4320</v>
       </c>
       <c r="M55" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N55" s="0">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="O55" s="0">
         <v>0.5</v>
       </c>
-      <c r="P55" s="0"/>
-      <c r="Q55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F56" s="0">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="G56" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H56" s="0">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I56" s="0"/>
-      <c r="J56" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J56" s="0"/>
       <c r="K56" s="0">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L56" s="0">
-        <v>0.040000000000000001</v>
+        <v>4320</v>
       </c>
       <c r="M56" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N56" s="0">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O56" s="0">
         <v>0.5</v>
       </c>
-      <c r="P56" s="0"/>
-      <c r="Q56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>102</v>
+        <v>160</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F57" s="0">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G57" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H57" s="0">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="I57" s="0"/>
-      <c r="J57" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J57" s="0"/>
       <c r="K57" s="0">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L57" s="0">
-        <v>0.040000000000000001</v>
+        <v>4320</v>
       </c>
       <c r="M57" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N57" s="0">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="O57" s="0">
         <v>0.5</v>
       </c>
-      <c r="P57" s="0"/>
-      <c r="Q57" s="0"/>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>2</v>
@@ -2857,42 +2616,32 @@
         <v>10</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F58" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G58" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H58" s="0">
         <v>25</v>
       </c>
       <c r="I58" s="0"/>
-      <c r="J58" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J58" s="0"/>
       <c r="K58" s="0">
         <v>1000</v>
       </c>
-      <c r="L58" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="M58" s="0">
-        <v>15</v>
-      </c>
-      <c r="N58" s="0">
-        <v>95</v>
-      </c>
+      <c r="L58" s="0"/>
+      <c r="M58" s="0"/>
+      <c r="N58" s="0"/>
       <c r="O58" s="0">
         <v>0.5</v>
       </c>
-      <c r="P58" s="0"/>
-      <c r="Q58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B59" s="0" t="s">
         <v>2</v>
@@ -2904,42 +2653,38 @@
         <v>10</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F59" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G59" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H59" s="0">
         <v>25</v>
       </c>
       <c r="I59" s="0"/>
-      <c r="J59" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J59" s="0"/>
       <c r="K59" s="0">
         <v>1000</v>
       </c>
       <c r="L59" s="0">
-        <v>0.050000000000000003</v>
+        <v>1010</v>
       </c>
       <c r="M59" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N59" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O59" s="0">
         <v>0.5</v>
       </c>
-      <c r="P59" s="0"/>
-      <c r="Q59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B60" s="0" t="s">
         <v>2</v>
@@ -2951,29 +2696,27 @@
         <v>10</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F60" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G60" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H60" s="0">
         <v>25</v>
       </c>
       <c r="I60" s="0"/>
-      <c r="J60" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J60" s="0"/>
       <c r="K60" s="0">
         <v>1000</v>
       </c>
       <c r="L60" s="0">
-        <v>0.050000000000000003</v>
+        <v>1010</v>
       </c>
       <c r="M60" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N60" s="0">
         <v>50</v>
@@ -2981,12 +2724,10 @@
       <c r="O60" s="0">
         <v>0.5</v>
       </c>
-      <c r="P60" s="0"/>
-      <c r="Q60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>2</v>
@@ -2998,42 +2739,38 @@
         <v>10</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F61" s="0">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G61" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H61" s="0">
         <v>25</v>
       </c>
       <c r="I61" s="0"/>
-      <c r="J61" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J61" s="0"/>
       <c r="K61" s="0">
         <v>1000</v>
       </c>
       <c r="L61" s="0">
-        <v>0.050000000000000003</v>
+        <v>1010</v>
       </c>
       <c r="M61" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N61" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O61" s="0">
         <v>0.5</v>
       </c>
-      <c r="P61" s="0"/>
-      <c r="Q61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>2</v>
@@ -3045,42 +2782,38 @@
         <v>10</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F62" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G62" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H62" s="0">
         <v>25</v>
       </c>
       <c r="I62" s="0"/>
-      <c r="J62" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J62" s="0"/>
       <c r="K62" s="0">
         <v>1000</v>
       </c>
       <c r="L62" s="0">
-        <v>0.059999999999999998</v>
+        <v>1020</v>
       </c>
       <c r="M62" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N62" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O62" s="0">
         <v>0.5</v>
       </c>
-      <c r="P62" s="0"/>
-      <c r="Q62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>2</v>
@@ -3092,29 +2825,27 @@
         <v>10</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F63" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G63" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H63" s="0">
         <v>25</v>
       </c>
       <c r="I63" s="0"/>
-      <c r="J63" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J63" s="0"/>
       <c r="K63" s="0">
         <v>1000</v>
       </c>
       <c r="L63" s="0">
-        <v>0.059999999999999998</v>
+        <v>1020</v>
       </c>
       <c r="M63" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N63" s="0">
         <v>50</v>
@@ -3122,12 +2853,10 @@
       <c r="O63" s="0">
         <v>0.5</v>
       </c>
-      <c r="P63" s="0"/>
-      <c r="Q63" s="0"/>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>2</v>
@@ -3139,42 +2868,38 @@
         <v>10</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F64" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G64" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H64" s="0">
         <v>25</v>
       </c>
       <c r="I64" s="0"/>
-      <c r="J64" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J64" s="0"/>
       <c r="K64" s="0">
         <v>1000</v>
       </c>
       <c r="L64" s="0">
-        <v>0.059999999999999998</v>
+        <v>1020</v>
       </c>
       <c r="M64" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N64" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O64" s="0">
         <v>0.5</v>
       </c>
-      <c r="P64" s="0"/>
-      <c r="Q64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>2</v>
@@ -3186,42 +2911,38 @@
         <v>10</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F65" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G65" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H65" s="0">
         <v>25</v>
       </c>
       <c r="I65" s="0"/>
-      <c r="J65" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J65" s="0"/>
       <c r="K65" s="0">
         <v>1000</v>
       </c>
       <c r="L65" s="0">
-        <v>0.14999999999999999</v>
+        <v>1030</v>
       </c>
       <c r="M65" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N65" s="0">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="O65" s="0">
         <v>0.5</v>
       </c>
-      <c r="P65" s="0"/>
-      <c r="Q65" s="0"/>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>2</v>
@@ -3233,29 +2954,27 @@
         <v>10</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F66" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G66" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H66" s="0">
         <v>25</v>
       </c>
       <c r="I66" s="0"/>
-      <c r="J66" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J66" s="0"/>
       <c r="K66" s="0">
         <v>1000</v>
       </c>
       <c r="L66" s="0">
-        <v>0.14999999999999999</v>
+        <v>1030</v>
       </c>
       <c r="M66" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N66" s="0">
         <v>50</v>
@@ -3263,12 +2982,10 @@
       <c r="O66" s="0">
         <v>0.5</v>
       </c>
-      <c r="P66" s="0"/>
-      <c r="Q66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="B67" s="0" t="s">
         <v>2</v>
@@ -3280,318 +2997,296 @@
         <v>10</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F67" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G67" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H67" s="0">
         <v>25</v>
       </c>
       <c r="I67" s="0"/>
-      <c r="J67" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J67" s="0"/>
       <c r="K67" s="0">
         <v>1000</v>
       </c>
       <c r="L67" s="0">
-        <v>0.14999999999999999</v>
+        <v>1030</v>
       </c>
       <c r="M67" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N67" s="0">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O67" s="0">
         <v>0.5</v>
       </c>
-      <c r="P67" s="0"/>
-      <c r="Q67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="B68" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F68" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G68" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H68" s="0">
         <v>25</v>
       </c>
       <c r="I68" s="0"/>
-      <c r="J68" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J68" s="0"/>
       <c r="K68" s="0">
-        <v>2000</v>
-      </c>
-      <c r="L68" s="0"/>
-      <c r="M68" s="0"/>
-      <c r="N68" s="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L68" s="0">
+        <v>1040</v>
+      </c>
+      <c r="M68" s="0">
+        <v>20</v>
+      </c>
+      <c r="N68" s="0">
+        <v>10</v>
+      </c>
       <c r="O68" s="0">
         <v>0.5</v>
       </c>
-      <c r="P68" s="0"/>
-      <c r="Q68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" s="0">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="B69" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="0">
         <v>15</v>
       </c>
-      <c r="F69" s="0">
-        <v>5</v>
-      </c>
       <c r="G69" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H69" s="0">
         <v>25</v>
       </c>
       <c r="I69" s="0"/>
-      <c r="J69" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J69" s="0"/>
       <c r="K69" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L69" s="0">
-        <v>0.029999999999999999</v>
+        <v>1040</v>
       </c>
       <c r="M69" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N69" s="0">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O69" s="0">
         <v>0.5</v>
       </c>
-      <c r="P69" s="0"/>
-      <c r="Q69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="B70" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F70" s="0">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="G70" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H70" s="0">
         <v>25</v>
       </c>
       <c r="I70" s="0"/>
-      <c r="J70" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J70" s="0"/>
       <c r="K70" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L70" s="0">
-        <v>0.029999999999999999</v>
+        <v>1040</v>
       </c>
       <c r="M70" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N70" s="0">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="O70" s="0">
         <v>0.5</v>
       </c>
-      <c r="P70" s="0"/>
-      <c r="Q70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="B71" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F71" s="0">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G71" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H71" s="0">
         <v>25</v>
       </c>
       <c r="I71" s="0"/>
-      <c r="J71" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J71" s="0"/>
       <c r="K71" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L71" s="0">
-        <v>0.029999999999999999</v>
+        <v>1060</v>
       </c>
       <c r="M71" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N71" s="0">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="O71" s="0">
         <v>0.5</v>
       </c>
-      <c r="P71" s="0"/>
-      <c r="Q71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" s="0">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="B72" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F72" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G72" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H72" s="0">
         <v>25</v>
       </c>
       <c r="I72" s="0"/>
-      <c r="J72" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J72" s="0"/>
       <c r="K72" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L72" s="0">
-        <v>0.040000000000000001</v>
+        <v>1060</v>
       </c>
       <c r="M72" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N72" s="0">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="O72" s="0">
         <v>0.5</v>
       </c>
-      <c r="P72" s="0"/>
-      <c r="Q72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0">
-        <v>103</v>
+        <v>161</v>
       </c>
       <c r="B73" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F73" s="0">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G73" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H73" s="0">
         <v>25</v>
       </c>
       <c r="I73" s="0"/>
-      <c r="J73" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J73" s="0"/>
       <c r="K73" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L73" s="0">
-        <v>0.040000000000000001</v>
+        <v>1060</v>
       </c>
       <c r="M73" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N73" s="0">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="O73" s="0">
         <v>0.5</v>
       </c>
-      <c r="P73" s="0"/>
-      <c r="Q73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B74" s="0" t="s">
         <v>2</v>
@@ -3603,42 +3298,32 @@
         <v>10</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F74" s="0">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G74" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H74" s="0">
         <v>25</v>
       </c>
       <c r="I74" s="0"/>
-      <c r="J74" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J74" s="0"/>
       <c r="K74" s="0">
-        <v>2000</v>
-      </c>
-      <c r="L74" s="0">
-        <v>0.040000000000000001</v>
-      </c>
-      <c r="M74" s="0">
-        <v>15</v>
-      </c>
-      <c r="N74" s="0">
-        <v>95</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="L74" s="0"/>
+      <c r="M74" s="0"/>
+      <c r="N74" s="0"/>
       <c r="O74" s="0">
         <v>0.5</v>
       </c>
-      <c r="P74" s="0"/>
-      <c r="Q74" s="0"/>
     </row>
     <row r="75">
       <c r="A75" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B75" s="0" t="s">
         <v>2</v>
@@ -3650,29 +3335,27 @@
         <v>10</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F75" s="0">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G75" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H75" s="0">
         <v>25</v>
       </c>
       <c r="I75" s="0"/>
-      <c r="J75" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J75" s="0"/>
       <c r="K75" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L75" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M75" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N75" s="0">
         <v>5</v>
@@ -3680,12 +3363,10 @@
       <c r="O75" s="0">
         <v>0.5</v>
       </c>
-      <c r="P75" s="0"/>
-      <c r="Q75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B76" s="0" t="s">
         <v>2</v>
@@ -3697,42 +3378,38 @@
         <v>10</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F76" s="0">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G76" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H76" s="0">
         <v>25</v>
       </c>
       <c r="I76" s="0"/>
-      <c r="J76" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J76" s="0"/>
       <c r="K76" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L76" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M76" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N76" s="0">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="O76" s="0">
         <v>0.5</v>
       </c>
-      <c r="P76" s="0"/>
-      <c r="Q76" s="0"/>
     </row>
     <row r="77">
       <c r="A77" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B77" s="0" t="s">
         <v>2</v>
@@ -3744,42 +3421,38 @@
         <v>10</v>
       </c>
       <c r="E77" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="0">
+        <v>7</v>
+      </c>
+      <c r="G77" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H77" s="0">
+        <v>25</v>
+      </c>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L77" s="0">
+        <v>1030</v>
+      </c>
+      <c r="M77" s="0">
+        <v>20</v>
+      </c>
+      <c r="N77" s="0">
         <v>15</v>
       </c>
-      <c r="F77" s="0">
-        <v>13</v>
-      </c>
-      <c r="G77" s="0">
-        <v>3</v>
-      </c>
-      <c r="H77" s="0">
-        <v>25</v>
-      </c>
-      <c r="I77" s="0"/>
-      <c r="J77" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="K77" s="0">
-        <v>2000</v>
-      </c>
-      <c r="L77" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="M77" s="0">
-        <v>15</v>
-      </c>
-      <c r="N77" s="0">
-        <v>95</v>
-      </c>
       <c r="O77" s="0">
         <v>0.5</v>
       </c>
-      <c r="P77" s="0"/>
-      <c r="Q77" s="0"/>
     </row>
     <row r="78">
       <c r="A78" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B78" s="0" t="s">
         <v>2</v>
@@ -3791,42 +3464,38 @@
         <v>10</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F78" s="0">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G78" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H78" s="0">
         <v>25</v>
       </c>
       <c r="I78" s="0"/>
-      <c r="J78" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J78" s="0"/>
       <c r="K78" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L78" s="0">
-        <v>0.059999999999999998</v>
+        <v>1030</v>
       </c>
       <c r="M78" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N78" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="O78" s="0">
         <v>0.5</v>
       </c>
-      <c r="P78" s="0"/>
-      <c r="Q78" s="0"/>
     </row>
     <row r="79">
       <c r="A79" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>2</v>
@@ -3838,42 +3507,38 @@
         <v>10</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F79" s="0">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G79" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H79" s="0">
         <v>25</v>
       </c>
       <c r="I79" s="0"/>
-      <c r="J79" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J79" s="0"/>
       <c r="K79" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L79" s="0">
-        <v>0.059999999999999998</v>
+        <v>1030</v>
       </c>
       <c r="M79" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N79" s="0">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="O79" s="0">
         <v>0.5</v>
       </c>
-      <c r="P79" s="0"/>
-      <c r="Q79" s="0"/>
     </row>
     <row r="80">
       <c r="A80" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>2</v>
@@ -3885,42 +3550,38 @@
         <v>10</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F80" s="0">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G80" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H80" s="0">
         <v>25</v>
       </c>
       <c r="I80" s="0"/>
-      <c r="J80" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J80" s="0"/>
       <c r="K80" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L80" s="0">
-        <v>0.059999999999999998</v>
+        <v>1030</v>
       </c>
       <c r="M80" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N80" s="0">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="O80" s="0">
         <v>0.5</v>
       </c>
-      <c r="P80" s="0"/>
-      <c r="Q80" s="0"/>
     </row>
     <row r="81">
       <c r="A81" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B81" s="0" t="s">
         <v>2</v>
@@ -3932,42 +3593,38 @@
         <v>10</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F81" s="0">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G81" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H81" s="0">
         <v>25</v>
       </c>
       <c r="I81" s="0"/>
-      <c r="J81" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J81" s="0"/>
       <c r="K81" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L81" s="0">
-        <v>0.14999999999999999</v>
+        <v>1030</v>
       </c>
       <c r="M81" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N81" s="0">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="O81" s="0">
         <v>0.5</v>
       </c>
-      <c r="P81" s="0"/>
-      <c r="Q81" s="0"/>
     </row>
     <row r="82">
       <c r="A82" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>2</v>
@@ -3979,42 +3636,38 @@
         <v>10</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F82" s="0">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G82" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H82" s="0">
         <v>25</v>
       </c>
       <c r="I82" s="0"/>
-      <c r="J82" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J82" s="0"/>
       <c r="K82" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L82" s="0">
-        <v>0.14999999999999999</v>
+        <v>1030</v>
       </c>
       <c r="M82" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N82" s="0">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O82" s="0">
         <v>0.5</v>
       </c>
-      <c r="P82" s="0"/>
-      <c r="Q82" s="0"/>
     </row>
     <row r="83">
       <c r="A83" s="0">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>2</v>
@@ -4026,130 +3679,124 @@
         <v>10</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F83" s="0">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G83" s="0">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H83" s="0">
         <v>25</v>
       </c>
       <c r="I83" s="0"/>
-      <c r="J83" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="J83" s="0"/>
       <c r="K83" s="0">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="L83" s="0">
-        <v>0.14999999999999999</v>
+        <v>1030</v>
       </c>
       <c r="M83" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N83" s="0">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O83" s="0">
         <v>0.5</v>
       </c>
-      <c r="P83" s="0"/>
-      <c r="Q83" s="0"/>
     </row>
     <row r="84">
       <c r="A84" s="0">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F84" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G84" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H84" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I84" s="0"/>
-      <c r="J84" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J84" s="0"/>
       <c r="K84" s="0">
         <v>1000</v>
       </c>
-      <c r="L84" s="0"/>
-      <c r="M84" s="0"/>
-      <c r="N84" s="0"/>
+      <c r="L84" s="0">
+        <v>1030</v>
+      </c>
+      <c r="M84" s="0">
+        <v>20</v>
+      </c>
+      <c r="N84" s="0">
+        <v>90</v>
+      </c>
       <c r="O84" s="0">
         <v>0.5</v>
       </c>
-      <c r="P84" s="0"/>
-      <c r="Q84" s="0"/>
     </row>
     <row r="85">
       <c r="A85" s="0">
-        <v>104</v>
+        <v>162</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>10</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F85" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G85" s="0">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="H85" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I85" s="0"/>
-      <c r="J85" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J85" s="0"/>
       <c r="K85" s="0">
         <v>1000</v>
       </c>
       <c r="L85" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M85" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N85" s="0">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="O85" s="0">
         <v>0.5</v>
       </c>
-      <c r="P85" s="0"/>
-      <c r="Q85" s="0"/>
     </row>
     <row r="86">
       <c r="A86" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>2</v>
@@ -4161,42 +3808,32 @@
         <v>10</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F86" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G86" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H86" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I86" s="0"/>
-      <c r="J86" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J86" s="0"/>
       <c r="K86" s="0">
         <v>1000</v>
       </c>
-      <c r="L86" s="0">
-        <v>0.050000000000000003</v>
-      </c>
-      <c r="M86" s="0">
-        <v>15</v>
-      </c>
-      <c r="N86" s="0">
-        <v>10</v>
-      </c>
+      <c r="L86" s="0"/>
+      <c r="M86" s="0"/>
+      <c r="N86" s="0"/>
       <c r="O86" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P86" s="0"/>
-      <c r="Q86" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>2</v>
@@ -4208,42 +3845,38 @@
         <v>10</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F87" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G87" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H87" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I87" s="0"/>
-      <c r="J87" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J87" s="0"/>
       <c r="K87" s="0">
         <v>1000</v>
       </c>
       <c r="L87" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M87" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N87" s="0">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O87" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P87" s="0"/>
-      <c r="Q87" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>2</v>
@@ -4255,42 +3888,38 @@
         <v>10</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F88" s="0">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G88" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H88" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I88" s="0"/>
-      <c r="J88" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J88" s="0"/>
       <c r="K88" s="0">
         <v>1000</v>
       </c>
       <c r="L88" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M88" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N88" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="O88" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P88" s="0"/>
-      <c r="Q88" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B89" s="0" t="s">
         <v>2</v>
@@ -4302,42 +3931,38 @@
         <v>10</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F89" s="0">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G89" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H89" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I89" s="0"/>
-      <c r="J89" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J89" s="0"/>
       <c r="K89" s="0">
         <v>1000</v>
       </c>
       <c r="L89" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M89" s="0">
+        <v>20</v>
+      </c>
+      <c r="N89" s="0">
         <v>15</v>
       </c>
-      <c r="N89" s="0">
-        <v>30</v>
-      </c>
       <c r="O89" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P89" s="0"/>
-      <c r="Q89" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B90" s="0" t="s">
         <v>2</v>
@@ -4349,42 +3974,38 @@
         <v>10</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F90" s="0">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G90" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H90" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I90" s="0"/>
-      <c r="J90" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J90" s="0"/>
       <c r="K90" s="0">
         <v>1000</v>
       </c>
       <c r="L90" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M90" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N90" s="0">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="O90" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P90" s="0"/>
-      <c r="Q90" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>2</v>
@@ -4396,42 +4017,38 @@
         <v>10</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F91" s="0">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G91" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H91" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I91" s="0"/>
-      <c r="J91" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J91" s="0"/>
       <c r="K91" s="0">
         <v>1000</v>
       </c>
       <c r="L91" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M91" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N91" s="0">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="O91" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P91" s="0"/>
-      <c r="Q91" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>2</v>
@@ -4443,42 +4060,38 @@
         <v>10</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F92" s="0">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G92" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H92" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I92" s="0"/>
-      <c r="J92" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J92" s="0"/>
       <c r="K92" s="0">
         <v>1000</v>
       </c>
       <c r="L92" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M92" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N92" s="0">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="O92" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P92" s="0"/>
-      <c r="Q92" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>2</v>
@@ -4490,42 +4103,38 @@
         <v>10</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F93" s="0">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G93" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H93" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I93" s="0"/>
-      <c r="J93" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J93" s="0"/>
       <c r="K93" s="0">
         <v>1000</v>
       </c>
       <c r="L93" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M93" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N93" s="0">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="O93" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P93" s="0"/>
-      <c r="Q93" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>2</v>
@@ -4537,42 +4146,38 @@
         <v>10</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F94" s="0">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G94" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H94" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I94" s="0"/>
-      <c r="J94" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J94" s="0"/>
       <c r="K94" s="0">
         <v>1000</v>
       </c>
       <c r="L94" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M94" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N94" s="0">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="O94" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P94" s="0"/>
-      <c r="Q94" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="0">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>2</v>
@@ -4584,106 +4189,102 @@
         <v>10</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F95" s="0">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G95" s="0">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="H95" s="0">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I95" s="0"/>
-      <c r="J95" s="0" t="s">
-        <v>24</v>
-      </c>
+      <c r="J95" s="0"/>
       <c r="K95" s="0">
         <v>1000</v>
       </c>
       <c r="L95" s="0">
-        <v>0.050000000000000003</v>
+        <v>1030</v>
       </c>
       <c r="M95" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N95" s="0">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="O95" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P95" s="0"/>
-      <c r="Q95" s="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="0">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F96" s="0">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G96" s="0">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="H96" s="0">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I96" s="0"/>
       <c r="J96" s="0"/>
       <c r="K96" s="0">
         <v>1000</v>
       </c>
-      <c r="L96" s="0"/>
-      <c r="M96" s="0"/>
-      <c r="N96" s="0"/>
+      <c r="L96" s="0">
+        <v>1030</v>
+      </c>
+      <c r="M96" s="0">
+        <v>20</v>
+      </c>
+      <c r="N96" s="0">
+        <v>90</v>
+      </c>
       <c r="O96" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P96" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q96" s="0">
-        <v>0.80000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0">
-        <v>105</v>
+        <v>163</v>
       </c>
       <c r="B97" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F97" s="0">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G97" s="0">
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="H97" s="0">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I97" s="0"/>
       <c r="J97" s="0"/>
@@ -4691,27 +4292,21 @@
         <v>1000</v>
       </c>
       <c r="L97" s="0">
-        <v>0.5</v>
+        <v>1030</v>
       </c>
       <c r="M97" s="0">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N97" s="0">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="O97" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P97" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q97" s="0">
-        <v>0.80000000000000004</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>2</v>
@@ -4720,47 +4315,35 @@
         <v>8</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F98" s="0">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G98" s="0">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="H98" s="0">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I98" s="0"/>
       <c r="J98" s="0"/>
       <c r="K98" s="0">
-        <v>1000</v>
-      </c>
-      <c r="L98" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="M98" s="0">
-        <v>15</v>
-      </c>
-      <c r="N98" s="0">
-        <v>50</v>
-      </c>
+        <v>4000</v>
+      </c>
+      <c r="L98" s="0"/>
+      <c r="M98" s="0"/>
+      <c r="N98" s="0"/>
       <c r="O98" s="0">
         <v>0.5</v>
-      </c>
-      <c r="P98" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q98" s="0">
-        <v>0.80000000000000004</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0">
-        <v>105</v>
+        <v>164</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>2</v>
@@ -4769,42 +4352,638 @@
         <v>8</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F99" s="0">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G99" s="0">
-        <v>10</v>
+        <v>3.5</v>
       </c>
       <c r="H99" s="0">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I99" s="0"/>
       <c r="J99" s="0"/>
       <c r="K99" s="0">
-        <v>1000</v>
+        <v>4000</v>
       </c>
       <c r="L99" s="0">
-        <v>0.5</v>
+        <v>4040</v>
       </c>
       <c r="M99" s="0">
+        <v>20</v>
+      </c>
+      <c r="N99" s="0">
+        <v>10</v>
+      </c>
+      <c r="O99" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="0">
+        <v>164</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E100" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="0">
+        <v>6</v>
+      </c>
+      <c r="G100" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H100" s="0">
+        <v>25</v>
+      </c>
+      <c r="I100" s="0"/>
+      <c r="J100" s="0"/>
+      <c r="K100" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L100" s="0">
+        <v>4040</v>
+      </c>
+      <c r="M100" s="0">
+        <v>20</v>
+      </c>
+      <c r="N100" s="0">
+        <v>50</v>
+      </c>
+      <c r="O100" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="0">
+        <v>164</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E101" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F101" s="0">
+        <v>7</v>
+      </c>
+      <c r="G101" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H101" s="0">
+        <v>25</v>
+      </c>
+      <c r="I101" s="0"/>
+      <c r="J101" s="0"/>
+      <c r="K101" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L101" s="0">
+        <v>4040</v>
+      </c>
+      <c r="M101" s="0">
+        <v>20</v>
+      </c>
+      <c r="N101" s="0">
+        <v>90</v>
+      </c>
+      <c r="O101" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="0">
+        <v>164</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D102" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E102" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="0">
+        <v>8</v>
+      </c>
+      <c r="G102" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H102" s="0">
+        <v>25</v>
+      </c>
+      <c r="I102" s="0"/>
+      <c r="J102" s="0"/>
+      <c r="K102" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L102" s="0">
+        <v>4080</v>
+      </c>
+      <c r="M102" s="0">
+        <v>20</v>
+      </c>
+      <c r="N102" s="0">
+        <v>10</v>
+      </c>
+      <c r="O102" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="0">
+        <v>164</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="0">
+        <v>9</v>
+      </c>
+      <c r="G103" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H103" s="0">
+        <v>25</v>
+      </c>
+      <c r="I103" s="0"/>
+      <c r="J103" s="0"/>
+      <c r="K103" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L103" s="0">
+        <v>4080</v>
+      </c>
+      <c r="M103" s="0">
+        <v>20</v>
+      </c>
+      <c r="N103" s="0">
+        <v>50</v>
+      </c>
+      <c r="O103" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="0">
+        <v>164</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E104" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104" s="0">
+        <v>10</v>
+      </c>
+      <c r="G104" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H104" s="0">
+        <v>25</v>
+      </c>
+      <c r="I104" s="0"/>
+      <c r="J104" s="0"/>
+      <c r="K104" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L104" s="0">
+        <v>4080</v>
+      </c>
+      <c r="M104" s="0">
+        <v>20</v>
+      </c>
+      <c r="N104" s="0">
+        <v>90</v>
+      </c>
+      <c r="O104" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="0">
+        <v>164</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E105" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="0">
+        <v>11</v>
+      </c>
+      <c r="G105" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H105" s="0">
+        <v>25</v>
+      </c>
+      <c r="I105" s="0"/>
+      <c r="J105" s="0"/>
+      <c r="K105" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L105" s="0">
+        <v>4120</v>
+      </c>
+      <c r="M105" s="0">
+        <v>20</v>
+      </c>
+      <c r="N105" s="0">
+        <v>10</v>
+      </c>
+      <c r="O105" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="0">
+        <v>164</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E106" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="0">
+        <v>12</v>
+      </c>
+      <c r="G106" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H106" s="0">
+        <v>25</v>
+      </c>
+      <c r="I106" s="0"/>
+      <c r="J106" s="0"/>
+      <c r="K106" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L106" s="0">
+        <v>4120</v>
+      </c>
+      <c r="M106" s="0">
+        <v>20</v>
+      </c>
+      <c r="N106" s="0">
+        <v>50</v>
+      </c>
+      <c r="O106" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="0">
+        <v>164</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="0">
+        <v>13</v>
+      </c>
+      <c r="G107" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H107" s="0">
+        <v>25</v>
+      </c>
+      <c r="I107" s="0"/>
+      <c r="J107" s="0"/>
+      <c r="K107" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L107" s="0">
+        <v>4120</v>
+      </c>
+      <c r="M107" s="0">
+        <v>20</v>
+      </c>
+      <c r="N107" s="0">
+        <v>90</v>
+      </c>
+      <c r="O107" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="0">
+        <v>164</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="0">
+        <v>14</v>
+      </c>
+      <c r="G108" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H108" s="0">
+        <v>25</v>
+      </c>
+      <c r="I108" s="0"/>
+      <c r="J108" s="0"/>
+      <c r="K108" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L108" s="0">
+        <v>4160</v>
+      </c>
+      <c r="M108" s="0">
+        <v>20</v>
+      </c>
+      <c r="N108" s="0">
+        <v>10</v>
+      </c>
+      <c r="O108" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="0">
+        <v>164</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109" s="0">
         <v>15</v>
       </c>
-      <c r="N99" s="0">
-        <v>95</v>
-      </c>
-      <c r="O99" s="0">
-        <v>0.5</v>
-      </c>
-      <c r="P99" s="0">
-        <v>6</v>
-      </c>
-      <c r="Q99" s="0">
-        <v>0.80000000000000004</v>
+      <c r="G109" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H109" s="0">
+        <v>25</v>
+      </c>
+      <c r="I109" s="0"/>
+      <c r="J109" s="0"/>
+      <c r="K109" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L109" s="0">
+        <v>4160</v>
+      </c>
+      <c r="M109" s="0">
+        <v>20</v>
+      </c>
+      <c r="N109" s="0">
+        <v>50</v>
+      </c>
+      <c r="O109" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="0">
+        <v>164</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D110" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="0">
+        <v>16</v>
+      </c>
+      <c r="G110" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H110" s="0">
+        <v>25</v>
+      </c>
+      <c r="I110" s="0"/>
+      <c r="J110" s="0"/>
+      <c r="K110" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L110" s="0">
+        <v>4160</v>
+      </c>
+      <c r="M110" s="0">
+        <v>20</v>
+      </c>
+      <c r="N110" s="0">
+        <v>90</v>
+      </c>
+      <c r="O110" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="0">
+        <v>164</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D111" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E111" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F111" s="0">
+        <v>17</v>
+      </c>
+      <c r="G111" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H111" s="0">
+        <v>25</v>
+      </c>
+      <c r="I111" s="0"/>
+      <c r="J111" s="0"/>
+      <c r="K111" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L111" s="0">
+        <v>4240</v>
+      </c>
+      <c r="M111" s="0">
+        <v>20</v>
+      </c>
+      <c r="N111" s="0">
+        <v>10</v>
+      </c>
+      <c r="O111" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="0">
+        <v>164</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E112" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="0">
+        <v>18</v>
+      </c>
+      <c r="G112" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H112" s="0">
+        <v>25</v>
+      </c>
+      <c r="I112" s="0"/>
+      <c r="J112" s="0"/>
+      <c r="K112" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L112" s="0">
+        <v>4240</v>
+      </c>
+      <c r="M112" s="0">
+        <v>20</v>
+      </c>
+      <c r="N112" s="0">
+        <v>50</v>
+      </c>
+      <c r="O112" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="0">
+        <v>164</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D113" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E113" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F113" s="0">
+        <v>19</v>
+      </c>
+      <c r="G113" s="0">
+        <v>3.5</v>
+      </c>
+      <c r="H113" s="0">
+        <v>25</v>
+      </c>
+      <c r="I113" s="0"/>
+      <c r="J113" s="0"/>
+      <c r="K113" s="0">
+        <v>4000</v>
+      </c>
+      <c r="L113" s="0">
+        <v>4240</v>
+      </c>
+      <c r="M113" s="0">
+        <v>20</v>
+      </c>
+      <c r="N113" s="0">
+        <v>90</v>
+      </c>
+      <c r="O113" s="0">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/rules/start-end effect/rules_SE.xlsx
+++ b/rules/start-end effect/rules_SE.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="32">
   <si>
     <t>pID</t>
   </si>
@@ -36,16 +36,25 @@
     <t>3-位置阶段(1k)</t>
   </si>
   <si>
-    <t>3-时长补充(1k)</t>
+    <t>4-时长补充(1k)</t>
   </si>
   <si>
-    <t>4-阈值阶段(4k)</t>
+    <t>5-阈值阶段(4k)</t>
+  </si>
+  <si>
+    <t>6-位置阶段EEG(1k)</t>
+  </si>
+  <si>
+    <t>7-时长补充EEG(1k)</t>
   </si>
   <si>
     <t>apType</t>
   </si>
   <si>
     <t>active</t>
+  </si>
+  <si>
+    <t>passive</t>
   </si>
   <si>
     <t>protocol</t>
@@ -64,6 +73,12 @@
   </si>
   <si>
     <t>SE th-4k</t>
+  </si>
+  <si>
+    <t>SE loc-EEG 1k</t>
+  </si>
+  <si>
+    <t>SE dur-EEG 1k</t>
   </si>
   <si>
     <t>code</t>
@@ -139,7 +154,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O113"/>
+  <dimension ref="A1:O137"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.15625" customWidth="true"/>
@@ -170,40 +185,40 @@
         <v>3</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -217,10 +232,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0">
         <v>4</v>
@@ -254,10 +269,10 @@
         <v>4</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0">
         <v>5</v>
@@ -297,10 +312,10 @@
         <v>4</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0">
         <v>6</v>
@@ -340,10 +355,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0">
         <v>7</v>
@@ -383,10 +398,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0">
         <v>8</v>
@@ -426,10 +441,10 @@
         <v>4</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0">
         <v>9</v>
@@ -469,10 +484,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0">
         <v>10</v>
@@ -512,10 +527,10 @@
         <v>4</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0">
         <v>11</v>
@@ -555,10 +570,10 @@
         <v>4</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F10" s="0">
         <v>12</v>
@@ -598,10 +613,10 @@
         <v>4</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F11" s="0">
         <v>13</v>
@@ -641,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0">
         <v>14</v>
@@ -684,10 +699,10 @@
         <v>4</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0">
         <v>15</v>
@@ -727,10 +742,10 @@
         <v>4</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F14" s="0">
         <v>16</v>
@@ -770,10 +785,10 @@
         <v>4</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0">
         <v>17</v>
@@ -813,10 +828,10 @@
         <v>4</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0">
         <v>18</v>
@@ -856,10 +871,10 @@
         <v>4</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F17" s="0">
         <v>19</v>
@@ -899,10 +914,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F18" s="0">
         <v>20</v>
@@ -942,10 +957,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F19" s="0">
         <v>21</v>
@@ -985,10 +1000,10 @@
         <v>4</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F20" s="0">
         <v>22</v>
@@ -1028,10 +1043,10 @@
         <v>4</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F21" s="0">
         <v>23</v>
@@ -1071,10 +1086,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F22" s="0">
         <v>24</v>
@@ -1114,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F23" s="0">
         <v>25</v>
@@ -1157,10 +1172,10 @@
         <v>4</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F24" s="0">
         <v>26</v>
@@ -1200,10 +1215,10 @@
         <v>4</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F25" s="0">
         <v>27</v>
@@ -1243,10 +1258,10 @@
         <v>4</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F26" s="0">
         <v>28</v>
@@ -1286,10 +1301,10 @@
         <v>4</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F27" s="0">
         <v>29</v>
@@ -1329,10 +1344,10 @@
         <v>4</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F28" s="0">
         <v>30</v>
@@ -1372,10 +1387,10 @@
         <v>4</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F29" s="0">
         <v>31</v>
@@ -1415,10 +1430,10 @@
         <v>4</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F30" s="0">
         <v>32</v>
@@ -1452,10 +1467,10 @@
         <v>4</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F31" s="0">
         <v>33</v>
@@ -1495,10 +1510,10 @@
         <v>4</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F32" s="0">
         <v>34</v>
@@ -1538,10 +1553,10 @@
         <v>4</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F33" s="0">
         <v>35</v>
@@ -1581,10 +1596,10 @@
         <v>4</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F34" s="0">
         <v>36</v>
@@ -1624,10 +1639,10 @@
         <v>4</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F35" s="0">
         <v>37</v>
@@ -1667,10 +1682,10 @@
         <v>4</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F36" s="0">
         <v>38</v>
@@ -1710,10 +1725,10 @@
         <v>4</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F37" s="0">
         <v>39</v>
@@ -1753,10 +1768,10 @@
         <v>4</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F38" s="0">
         <v>40</v>
@@ -1796,10 +1811,10 @@
         <v>4</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F39" s="0">
         <v>41</v>
@@ -1839,10 +1854,10 @@
         <v>4</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F40" s="0">
         <v>42</v>
@@ -1882,10 +1897,10 @@
         <v>4</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F41" s="0">
         <v>43</v>
@@ -1925,10 +1940,10 @@
         <v>4</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F42" s="0">
         <v>44</v>
@@ -1968,10 +1983,10 @@
         <v>4</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F43" s="0">
         <v>45</v>
@@ -2011,10 +2026,10 @@
         <v>4</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F44" s="0">
         <v>46</v>
@@ -2054,10 +2069,10 @@
         <v>4</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F45" s="0">
         <v>47</v>
@@ -2097,10 +2112,10 @@
         <v>4</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F46" s="0">
         <v>48</v>
@@ -2140,10 +2155,10 @@
         <v>4</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F47" s="0">
         <v>49</v>
@@ -2183,10 +2198,10 @@
         <v>4</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F48" s="0">
         <v>50</v>
@@ -2226,10 +2241,10 @@
         <v>4</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F49" s="0">
         <v>51</v>
@@ -2269,10 +2284,10 @@
         <v>4</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F50" s="0">
         <v>52</v>
@@ -2312,10 +2327,10 @@
         <v>4</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F51" s="0">
         <v>53</v>
@@ -2355,10 +2370,10 @@
         <v>4</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F52" s="0">
         <v>54</v>
@@ -2398,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F53" s="0">
         <v>55</v>
@@ -2441,10 +2456,10 @@
         <v>4</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F54" s="0">
         <v>56</v>
@@ -2484,10 +2499,10 @@
         <v>4</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F55" s="0">
         <v>57</v>
@@ -2527,10 +2542,10 @@
         <v>4</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F56" s="0">
         <v>58</v>
@@ -2570,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F57" s="0">
         <v>59</v>
@@ -2613,10 +2628,10 @@
         <v>5</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F58" s="0">
         <v>4</v>
@@ -2625,7 +2640,7 @@
         <v>3.5</v>
       </c>
       <c r="H58" s="0">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I58" s="0"/>
       <c r="J58" s="0"/>
@@ -2650,10 +2665,10 @@
         <v>5</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F59" s="0">
         <v>5</v>
@@ -2693,10 +2708,10 @@
         <v>5</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F60" s="0">
         <v>6</v>
@@ -2736,10 +2751,10 @@
         <v>5</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F61" s="0">
         <v>7</v>
@@ -2779,10 +2794,10 @@
         <v>5</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F62" s="0">
         <v>8</v>
@@ -2822,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F63" s="0">
         <v>9</v>
@@ -2865,10 +2880,10 @@
         <v>5</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F64" s="0">
         <v>10</v>
@@ -2908,10 +2923,10 @@
         <v>5</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F65" s="0">
         <v>11</v>
@@ -2951,10 +2966,10 @@
         <v>5</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F66" s="0">
         <v>12</v>
@@ -2994,10 +3009,10 @@
         <v>5</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F67" s="0">
         <v>13</v>
@@ -3037,10 +3052,10 @@
         <v>5</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F68" s="0">
         <v>14</v>
@@ -3080,10 +3095,10 @@
         <v>5</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F69" s="0">
         <v>15</v>
@@ -3123,10 +3138,10 @@
         <v>5</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F70" s="0">
         <v>16</v>
@@ -3166,10 +3181,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F71" s="0">
         <v>17</v>
@@ -3209,10 +3224,10 @@
         <v>5</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F72" s="0">
         <v>18</v>
@@ -3252,10 +3267,10 @@
         <v>5</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F73" s="0">
         <v>19</v>
@@ -3295,10 +3310,10 @@
         <v>6</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F74" s="0">
         <v>4</v>
@@ -3332,10 +3347,10 @@
         <v>6</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F75" s="0">
         <v>5</v>
@@ -3352,7 +3367,7 @@
         <v>1000</v>
       </c>
       <c r="L75" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M75" s="0">
         <v>20</v>
@@ -3375,10 +3390,10 @@
         <v>6</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F76" s="0">
         <v>6</v>
@@ -3395,7 +3410,7 @@
         <v>1000</v>
       </c>
       <c r="L76" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M76" s="0">
         <v>20</v>
@@ -3418,10 +3433,10 @@
         <v>6</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F77" s="0">
         <v>7</v>
@@ -3438,7 +3453,7 @@
         <v>1000</v>
       </c>
       <c r="L77" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M77" s="0">
         <v>20</v>
@@ -3461,10 +3476,10 @@
         <v>6</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F78" s="0">
         <v>8</v>
@@ -3481,7 +3496,7 @@
         <v>1000</v>
       </c>
       <c r="L78" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M78" s="0">
         <v>20</v>
@@ -3504,10 +3519,10 @@
         <v>6</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F79" s="0">
         <v>9</v>
@@ -3524,7 +3539,7 @@
         <v>1000</v>
       </c>
       <c r="L79" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M79" s="0">
         <v>20</v>
@@ -3547,10 +3562,10 @@
         <v>6</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F80" s="0">
         <v>10</v>
@@ -3567,7 +3582,7 @@
         <v>1000</v>
       </c>
       <c r="L80" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M80" s="0">
         <v>20</v>
@@ -3590,10 +3605,10 @@
         <v>6</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F81" s="0">
         <v>11</v>
@@ -3610,7 +3625,7 @@
         <v>1000</v>
       </c>
       <c r="L81" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M81" s="0">
         <v>20</v>
@@ -3633,10 +3648,10 @@
         <v>6</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F82" s="0">
         <v>12</v>
@@ -3653,7 +3668,7 @@
         <v>1000</v>
       </c>
       <c r="L82" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M82" s="0">
         <v>20</v>
@@ -3676,10 +3691,10 @@
         <v>6</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F83" s="0">
         <v>13</v>
@@ -3696,7 +3711,7 @@
         <v>1000</v>
       </c>
       <c r="L83" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M83" s="0">
         <v>20</v>
@@ -3719,10 +3734,10 @@
         <v>6</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F84" s="0">
         <v>14</v>
@@ -3739,7 +3754,7 @@
         <v>1000</v>
       </c>
       <c r="L84" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M84" s="0">
         <v>20</v>
@@ -3762,10 +3777,10 @@
         <v>6</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F85" s="0">
         <v>15</v>
@@ -3782,7 +3797,7 @@
         <v>1000</v>
       </c>
       <c r="L85" s="0">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="M85" s="0">
         <v>20</v>
@@ -3805,10 +3820,10 @@
         <v>7</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F86" s="0">
         <v>4</v>
@@ -3842,10 +3857,10 @@
         <v>7</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F87" s="0">
         <v>5</v>
@@ -3862,7 +3877,7 @@
         <v>1000</v>
       </c>
       <c r="L87" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M87" s="0">
         <v>20</v>
@@ -3885,10 +3900,10 @@
         <v>7</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F88" s="0">
         <v>6</v>
@@ -3905,7 +3920,7 @@
         <v>1000</v>
       </c>
       <c r="L88" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M88" s="0">
         <v>20</v>
@@ -3928,10 +3943,10 @@
         <v>7</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F89" s="0">
         <v>7</v>
@@ -3948,7 +3963,7 @@
         <v>1000</v>
       </c>
       <c r="L89" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M89" s="0">
         <v>20</v>
@@ -3971,10 +3986,10 @@
         <v>7</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F90" s="0">
         <v>8</v>
@@ -3991,7 +4006,7 @@
         <v>1000</v>
       </c>
       <c r="L90" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M90" s="0">
         <v>20</v>
@@ -4014,10 +4029,10 @@
         <v>7</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F91" s="0">
         <v>9</v>
@@ -4034,7 +4049,7 @@
         <v>1000</v>
       </c>
       <c r="L91" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M91" s="0">
         <v>20</v>
@@ -4057,10 +4072,10 @@
         <v>7</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F92" s="0">
         <v>10</v>
@@ -4077,7 +4092,7 @@
         <v>1000</v>
       </c>
       <c r="L92" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M92" s="0">
         <v>20</v>
@@ -4100,10 +4115,10 @@
         <v>7</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F93" s="0">
         <v>11</v>
@@ -4120,7 +4135,7 @@
         <v>1000</v>
       </c>
       <c r="L93" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M93" s="0">
         <v>20</v>
@@ -4143,10 +4158,10 @@
         <v>7</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F94" s="0">
         <v>12</v>
@@ -4163,7 +4178,7 @@
         <v>1000</v>
       </c>
       <c r="L94" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M94" s="0">
         <v>20</v>
@@ -4186,10 +4201,10 @@
         <v>7</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F95" s="0">
         <v>13</v>
@@ -4206,7 +4221,7 @@
         <v>1000</v>
       </c>
       <c r="L95" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M95" s="0">
         <v>20</v>
@@ -4229,10 +4244,10 @@
         <v>7</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F96" s="0">
         <v>14</v>
@@ -4249,7 +4264,7 @@
         <v>1000</v>
       </c>
       <c r="L96" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M96" s="0">
         <v>20</v>
@@ -4272,10 +4287,10 @@
         <v>7</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F97" s="0">
         <v>15</v>
@@ -4292,7 +4307,7 @@
         <v>1000</v>
       </c>
       <c r="L97" s="0">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="M97" s="0">
         <v>20</v>
@@ -4315,10 +4330,10 @@
         <v>8</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F98" s="0">
         <v>4</v>
@@ -4352,10 +4367,10 @@
         <v>8</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F99" s="0">
         <v>5</v>
@@ -4395,10 +4410,10 @@
         <v>8</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F100" s="0">
         <v>6</v>
@@ -4438,10 +4453,10 @@
         <v>8</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F101" s="0">
         <v>7</v>
@@ -4481,10 +4496,10 @@
         <v>8</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F102" s="0">
         <v>8</v>
@@ -4524,10 +4539,10 @@
         <v>8</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F103" s="0">
         <v>9</v>
@@ -4567,10 +4582,10 @@
         <v>8</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F104" s="0">
         <v>10</v>
@@ -4610,10 +4625,10 @@
         <v>8</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F105" s="0">
         <v>11</v>
@@ -4653,10 +4668,10 @@
         <v>8</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F106" s="0">
         <v>12</v>
@@ -4696,10 +4711,10 @@
         <v>8</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F107" s="0">
         <v>13</v>
@@ -4739,10 +4754,10 @@
         <v>8</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F108" s="0">
         <v>14</v>
@@ -4782,10 +4797,10 @@
         <v>8</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F109" s="0">
         <v>15</v>
@@ -4825,10 +4840,10 @@
         <v>8</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F110" s="0">
         <v>16</v>
@@ -4868,10 +4883,10 @@
         <v>8</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F111" s="0">
         <v>17</v>
@@ -4911,10 +4926,10 @@
         <v>8</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F112" s="0">
         <v>18</v>
@@ -4954,10 +4969,10 @@
         <v>8</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F113" s="0">
         <v>19</v>
@@ -4986,6 +5001,1026 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="114">
+      <c r="A114" s="0">
+        <v>165</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E114" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="0">
+        <v>4</v>
+      </c>
+      <c r="G114" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H114" s="0">
+        <v>40</v>
+      </c>
+      <c r="I114" s="0"/>
+      <c r="J114" s="0"/>
+      <c r="K114" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L114" s="0"/>
+      <c r="M114" s="0"/>
+      <c r="N114" s="0"/>
+      <c r="O114" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="0">
+        <v>165</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E115" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="0">
+        <v>5</v>
+      </c>
+      <c r="G115" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H115" s="0">
+        <v>40</v>
+      </c>
+      <c r="I115" s="0"/>
+      <c r="J115" s="0"/>
+      <c r="K115" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L115" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M115" s="0">
+        <v>20</v>
+      </c>
+      <c r="N115" s="0">
+        <v>5</v>
+      </c>
+      <c r="O115" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="0">
+        <v>165</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D116" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E116" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116" s="0">
+        <v>6</v>
+      </c>
+      <c r="G116" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H116" s="0">
+        <v>40</v>
+      </c>
+      <c r="I116" s="0"/>
+      <c r="J116" s="0"/>
+      <c r="K116" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L116" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M116" s="0">
+        <v>20</v>
+      </c>
+      <c r="N116" s="0">
+        <v>10</v>
+      </c>
+      <c r="O116" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0">
+        <v>165</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E117" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117" s="0">
+        <v>7</v>
+      </c>
+      <c r="G117" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H117" s="0">
+        <v>40</v>
+      </c>
+      <c r="I117" s="0"/>
+      <c r="J117" s="0"/>
+      <c r="K117" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L117" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M117" s="0">
+        <v>20</v>
+      </c>
+      <c r="N117" s="0">
+        <v>15</v>
+      </c>
+      <c r="O117" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="0">
+        <v>165</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E118" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F118" s="0">
+        <v>8</v>
+      </c>
+      <c r="G118" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H118" s="0">
+        <v>40</v>
+      </c>
+      <c r="I118" s="0"/>
+      <c r="J118" s="0"/>
+      <c r="K118" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L118" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M118" s="0">
+        <v>20</v>
+      </c>
+      <c r="N118" s="0">
+        <v>20</v>
+      </c>
+      <c r="O118" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="0">
+        <v>165</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E119" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F119" s="0">
+        <v>9</v>
+      </c>
+      <c r="G119" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H119" s="0">
+        <v>40</v>
+      </c>
+      <c r="I119" s="0"/>
+      <c r="J119" s="0"/>
+      <c r="K119" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L119" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M119" s="0">
+        <v>20</v>
+      </c>
+      <c r="N119" s="0">
+        <v>30</v>
+      </c>
+      <c r="O119" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="0">
+        <v>165</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E120" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="0">
+        <v>10</v>
+      </c>
+      <c r="G120" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H120" s="0">
+        <v>40</v>
+      </c>
+      <c r="I120" s="0"/>
+      <c r="J120" s="0"/>
+      <c r="K120" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L120" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M120" s="0">
+        <v>20</v>
+      </c>
+      <c r="N120" s="0">
+        <v>50</v>
+      </c>
+      <c r="O120" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="0">
+        <v>165</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E121" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121" s="0">
+        <v>11</v>
+      </c>
+      <c r="G121" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H121" s="0">
+        <v>40</v>
+      </c>
+      <c r="I121" s="0"/>
+      <c r="J121" s="0"/>
+      <c r="K121" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L121" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M121" s="0">
+        <v>20</v>
+      </c>
+      <c r="N121" s="0">
+        <v>70</v>
+      </c>
+      <c r="O121" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="0">
+        <v>165</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E122" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F122" s="0">
+        <v>12</v>
+      </c>
+      <c r="G122" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H122" s="0">
+        <v>40</v>
+      </c>
+      <c r="I122" s="0"/>
+      <c r="J122" s="0"/>
+      <c r="K122" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L122" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M122" s="0">
+        <v>20</v>
+      </c>
+      <c r="N122" s="0">
+        <v>80</v>
+      </c>
+      <c r="O122" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="0">
+        <v>165</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F123" s="0">
+        <v>13</v>
+      </c>
+      <c r="G123" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H123" s="0">
+        <v>40</v>
+      </c>
+      <c r="I123" s="0"/>
+      <c r="J123" s="0"/>
+      <c r="K123" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L123" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M123" s="0">
+        <v>20</v>
+      </c>
+      <c r="N123" s="0">
+        <v>85</v>
+      </c>
+      <c r="O123" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="0">
+        <v>165</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E124" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124" s="0">
+        <v>14</v>
+      </c>
+      <c r="G124" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H124" s="0">
+        <v>40</v>
+      </c>
+      <c r="I124" s="0"/>
+      <c r="J124" s="0"/>
+      <c r="K124" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L124" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M124" s="0">
+        <v>20</v>
+      </c>
+      <c r="N124" s="0">
+        <v>90</v>
+      </c>
+      <c r="O124" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="0">
+        <v>165</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E125" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="0">
+        <v>15</v>
+      </c>
+      <c r="G125" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="H125" s="0">
+        <v>40</v>
+      </c>
+      <c r="I125" s="0"/>
+      <c r="J125" s="0"/>
+      <c r="K125" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L125" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M125" s="0">
+        <v>20</v>
+      </c>
+      <c r="N125" s="0">
+        <v>95</v>
+      </c>
+      <c r="O125" s="0">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="0">
+        <v>166</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E126" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F126" s="0">
+        <v>4</v>
+      </c>
+      <c r="G126" s="0">
+        <v>2</v>
+      </c>
+      <c r="H126" s="0">
+        <v>40</v>
+      </c>
+      <c r="I126" s="0"/>
+      <c r="J126" s="0"/>
+      <c r="K126" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L126" s="0"/>
+      <c r="M126" s="0"/>
+      <c r="N126" s="0"/>
+      <c r="O126" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="0">
+        <v>166</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E127" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F127" s="0">
+        <v>5</v>
+      </c>
+      <c r="G127" s="0">
+        <v>2</v>
+      </c>
+      <c r="H127" s="0">
+        <v>40</v>
+      </c>
+      <c r="I127" s="0"/>
+      <c r="J127" s="0"/>
+      <c r="K127" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L127" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M127" s="0">
+        <v>20</v>
+      </c>
+      <c r="N127" s="0">
+        <v>5</v>
+      </c>
+      <c r="O127" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="0">
+        <v>166</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E128" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128" s="0">
+        <v>6</v>
+      </c>
+      <c r="G128" s="0">
+        <v>2</v>
+      </c>
+      <c r="H128" s="0">
+        <v>40</v>
+      </c>
+      <c r="I128" s="0"/>
+      <c r="J128" s="0"/>
+      <c r="K128" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L128" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M128" s="0">
+        <v>20</v>
+      </c>
+      <c r="N128" s="0">
+        <v>10</v>
+      </c>
+      <c r="O128" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="0">
+        <v>166</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E129" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129" s="0">
+        <v>7</v>
+      </c>
+      <c r="G129" s="0">
+        <v>2</v>
+      </c>
+      <c r="H129" s="0">
+        <v>40</v>
+      </c>
+      <c r="I129" s="0"/>
+      <c r="J129" s="0"/>
+      <c r="K129" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L129" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M129" s="0">
+        <v>20</v>
+      </c>
+      <c r="N129" s="0">
+        <v>15</v>
+      </c>
+      <c r="O129" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="0">
+        <v>166</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E130" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F130" s="0">
+        <v>8</v>
+      </c>
+      <c r="G130" s="0">
+        <v>2</v>
+      </c>
+      <c r="H130" s="0">
+        <v>40</v>
+      </c>
+      <c r="I130" s="0"/>
+      <c r="J130" s="0"/>
+      <c r="K130" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L130" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M130" s="0">
+        <v>20</v>
+      </c>
+      <c r="N130" s="0">
+        <v>20</v>
+      </c>
+      <c r="O130" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="0">
+        <v>166</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E131" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F131" s="0">
+        <v>9</v>
+      </c>
+      <c r="G131" s="0">
+        <v>2</v>
+      </c>
+      <c r="H131" s="0">
+        <v>40</v>
+      </c>
+      <c r="I131" s="0"/>
+      <c r="J131" s="0"/>
+      <c r="K131" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L131" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M131" s="0">
+        <v>20</v>
+      </c>
+      <c r="N131" s="0">
+        <v>30</v>
+      </c>
+      <c r="O131" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="0">
+        <v>166</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E132" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F132" s="0">
+        <v>10</v>
+      </c>
+      <c r="G132" s="0">
+        <v>2</v>
+      </c>
+      <c r="H132" s="0">
+        <v>40</v>
+      </c>
+      <c r="I132" s="0"/>
+      <c r="J132" s="0"/>
+      <c r="K132" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L132" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M132" s="0">
+        <v>20</v>
+      </c>
+      <c r="N132" s="0">
+        <v>50</v>
+      </c>
+      <c r="O132" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="0">
+        <v>166</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F133" s="0">
+        <v>11</v>
+      </c>
+      <c r="G133" s="0">
+        <v>2</v>
+      </c>
+      <c r="H133" s="0">
+        <v>40</v>
+      </c>
+      <c r="I133" s="0"/>
+      <c r="J133" s="0"/>
+      <c r="K133" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L133" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M133" s="0">
+        <v>20</v>
+      </c>
+      <c r="N133" s="0">
+        <v>70</v>
+      </c>
+      <c r="O133" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="0">
+        <v>166</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E134" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F134" s="0">
+        <v>12</v>
+      </c>
+      <c r="G134" s="0">
+        <v>2</v>
+      </c>
+      <c r="H134" s="0">
+        <v>40</v>
+      </c>
+      <c r="I134" s="0"/>
+      <c r="J134" s="0"/>
+      <c r="K134" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L134" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M134" s="0">
+        <v>20</v>
+      </c>
+      <c r="N134" s="0">
+        <v>80</v>
+      </c>
+      <c r="O134" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="0">
+        <v>166</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E135" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F135" s="0">
+        <v>13</v>
+      </c>
+      <c r="G135" s="0">
+        <v>2</v>
+      </c>
+      <c r="H135" s="0">
+        <v>40</v>
+      </c>
+      <c r="I135" s="0"/>
+      <c r="J135" s="0"/>
+      <c r="K135" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L135" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M135" s="0">
+        <v>20</v>
+      </c>
+      <c r="N135" s="0">
+        <v>85</v>
+      </c>
+      <c r="O135" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="0">
+        <v>166</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E136" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F136" s="0">
+        <v>14</v>
+      </c>
+      <c r="G136" s="0">
+        <v>2</v>
+      </c>
+      <c r="H136" s="0">
+        <v>40</v>
+      </c>
+      <c r="I136" s="0"/>
+      <c r="J136" s="0"/>
+      <c r="K136" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L136" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M136" s="0">
+        <v>20</v>
+      </c>
+      <c r="N136" s="0">
+        <v>90</v>
+      </c>
+      <c r="O136" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="0">
+        <v>166</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E137" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F137" s="0">
+        <v>15</v>
+      </c>
+      <c r="G137" s="0">
+        <v>2</v>
+      </c>
+      <c r="H137" s="0">
+        <v>40</v>
+      </c>
+      <c r="I137" s="0"/>
+      <c r="J137" s="0"/>
+      <c r="K137" s="0">
+        <v>1000</v>
+      </c>
+      <c r="L137" s="0">
+        <v>1020</v>
+      </c>
+      <c r="M137" s="0">
+        <v>20</v>
+      </c>
+      <c r="N137" s="0">
+        <v>95</v>
+      </c>
+      <c r="O137" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/rules/start-end effect/rules_SE.xlsx
+++ b/rules/start-end effect/rules_SE.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <workbookPr/>
   <bookViews>
     <workbookView activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="559" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="559" uniqueCount="32">
   <si>
     <t>pID</t>
   </si>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -153,25 +153,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O137"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.15625" customWidth="true"/>
-    <col min="2" max="2" width="12.6015625" customWidth="true"/>
-    <col min="3" max="3" width="17.046875" customWidth="true"/>
-    <col min="4" max="4" width="7.046875" customWidth="true"/>
-    <col min="5" max="5" width="14.7109375" customWidth="true"/>
-    <col min="6" max="6" width="5.15625" customWidth="true"/>
-    <col min="7" max="7" width="3.7109375" customWidth="true"/>
-    <col min="8" max="8" width="7.93359375" customWidth="true"/>
-    <col min="9" max="9" width="6.82421875" customWidth="true"/>
-    <col min="10" max="10" width="10.15625" customWidth="true"/>
-    <col min="11" max="11" width="5.15625" customWidth="true"/>
-    <col min="12" max="12" width="5.15625" customWidth="true"/>
-    <col min="13" max="13" width="13.37890625" customWidth="true"/>
-    <col min="14" max="14" width="4.046875" customWidth="true"/>
-    <col min="15" max="15" width="3.82421875" customWidth="true"/>
+    <col min="1" max="1" width="4" customWidth="true"/>
+    <col min="2" max="2" width="12.44140625" customWidth="true"/>
+    <col min="3" max="3" width="16.88671875" customWidth="true"/>
+    <col min="4" max="4" width="6.88671875" customWidth="true"/>
+    <col min="5" max="5" width="14.5546875" customWidth="true"/>
+    <col min="6" max="6" width="5" customWidth="true"/>
+    <col min="7" max="7" width="3.5546875" customWidth="true"/>
+    <col min="8" max="8" width="7.77734375" customWidth="true"/>
+    <col min="9" max="9" width="6.6640625" customWidth="true"/>
+    <col min="10" max="10" width="10" customWidth="true"/>
+    <col min="11" max="11" width="5" customWidth="true"/>
+    <col min="12" max="12" width="5" customWidth="true"/>
+    <col min="13" max="13" width="13.21875" customWidth="true"/>
+    <col min="14" max="14" width="3.88671875" customWidth="true"/>
+    <col min="15" max="15" width="3.6640625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5579,7 +5582,7 @@
         <v>1000</v>
       </c>
       <c r="L127" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M127" s="0">
         <v>20</v>
@@ -5622,7 +5625,7 @@
         <v>1000</v>
       </c>
       <c r="L128" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M128" s="0">
         <v>20</v>
@@ -5665,7 +5668,7 @@
         <v>1000</v>
       </c>
       <c r="L129" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M129" s="0">
         <v>20</v>
@@ -5708,7 +5711,7 @@
         <v>1000</v>
       </c>
       <c r="L130" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M130" s="0">
         <v>20</v>
@@ -5751,7 +5754,7 @@
         <v>1000</v>
       </c>
       <c r="L131" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M131" s="0">
         <v>20</v>
@@ -5794,7 +5797,7 @@
         <v>1000</v>
       </c>
       <c r="L132" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M132" s="0">
         <v>20</v>
@@ -5837,7 +5840,7 @@
         <v>1000</v>
       </c>
       <c r="L133" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M133" s="0">
         <v>20</v>
@@ -5880,7 +5883,7 @@
         <v>1000</v>
       </c>
       <c r="L134" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M134" s="0">
         <v>20</v>
@@ -5923,7 +5926,7 @@
         <v>1000</v>
       </c>
       <c r="L135" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M135" s="0">
         <v>20</v>
@@ -5966,7 +5969,7 @@
         <v>1000</v>
       </c>
       <c r="L136" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M136" s="0">
         <v>20</v>
@@ -6009,7 +6012,7 @@
         <v>1000</v>
       </c>
       <c r="L137" s="0">
-        <v>1020</v>
+        <v>1060</v>
       </c>
       <c r="M137" s="0">
         <v>20</v>
